--- a/RyR_Generator/2_Results/Target.xlsx
+++ b/RyR_Generator/2_Results/Target.xlsx
@@ -1,44 +1,62 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EIITCAD\_LUCIANO\Generador RyR\2_Resultados\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62FB300D-0A3C-4EEB-9746-1E5F413C0535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>Guia_Luz_Blanco_FB1_X</t>
+  </si>
+  <si>
+    <t>Guia_Luz_Blanco_FB1_Y</t>
+  </si>
+  <si>
+    <t>Guia_Luz_Blanco_FB2_X</t>
+  </si>
+  <si>
+    <t>Guia_Luz_Blanco_FB2_Y</t>
+  </si>
+  <si>
+    <t>Guia_Luz_Blanco_FB3_X</t>
+  </si>
+  <si>
+    <t>Guia_Luz_Blanco_FB3_Y</t>
+  </si>
+  <si>
+    <t>Guia_Luz_Blanco_FB4_X</t>
+  </si>
+  <si>
+    <t>Guia_Luz_Blanco_FB4_Y</t>
+  </si>
+  <si>
+    <t>Guia_Luz_Blanco_FB5_X</t>
+  </si>
+  <si>
+    <t>Guia_Luz_Blanco_FB5_Y</t>
+  </si>
+  <si>
+    <t>Guia_Luz_Blanco_FB6_X</t>
+  </si>
+  <si>
+    <t>Guia_Luz_Blanco_FB6_Y</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,14 +93,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -370,18 +380,1226 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A4:AG15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="37" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="4" spans="1:33">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0.3254</v>
+      </c>
+      <c r="C4">
+        <v>0.3254</v>
+      </c>
+      <c r="D4">
+        <v>0.3254</v>
+      </c>
+      <c r="E4">
+        <v>0.3254</v>
+      </c>
+      <c r="F4">
+        <v>0.3254</v>
+      </c>
+      <c r="G4">
+        <v>0.3254</v>
+      </c>
+      <c r="H4">
+        <v>0.3254</v>
+      </c>
+      <c r="I4">
+        <v>0.3254</v>
+      </c>
+      <c r="J4">
+        <v>0.3254</v>
+      </c>
+      <c r="K4">
+        <v>0.3254</v>
+      </c>
+      <c r="L4">
+        <v>0.3249</v>
+      </c>
+      <c r="M4">
+        <v>0.3251</v>
+      </c>
+      <c r="N4">
+        <v>0.3248</v>
+      </c>
+      <c r="O4">
+        <v>0.3248</v>
+      </c>
+      <c r="P4">
+        <v>0.3248</v>
+      </c>
+      <c r="Q4">
+        <v>0.3249</v>
+      </c>
+      <c r="R4">
+        <v>0.3253</v>
+      </c>
+      <c r="S4">
+        <v>0.3254</v>
+      </c>
+      <c r="T4">
+        <v>0.3251</v>
+      </c>
+      <c r="U4">
+        <v>0.3252</v>
+      </c>
+      <c r="V4">
+        <v>0.3254</v>
+      </c>
+      <c r="W4">
+        <v>0.3248</v>
+      </c>
+      <c r="X4">
+        <v>0.3248</v>
+      </c>
+      <c r="Y4">
+        <v>0.3252</v>
+      </c>
+      <c r="Z4">
+        <v>0.3253</v>
+      </c>
+      <c r="AA4">
+        <v>0.3253</v>
+      </c>
+      <c r="AB4">
+        <v>0.3254</v>
+      </c>
+      <c r="AC4">
+        <v>0.3253</v>
+      </c>
+      <c r="AD4">
+        <v>0.3252</v>
+      </c>
+      <c r="AE4">
+        <v>0.3254</v>
+      </c>
+      <c r="AF4">
+        <v>0.31</v>
+      </c>
+      <c r="AG4">
+        <v>0.335</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>0.3467</v>
+      </c>
+      <c r="C5">
+        <v>0.3467</v>
+      </c>
+      <c r="D5">
+        <v>0.3467</v>
+      </c>
+      <c r="E5">
+        <v>0.3467</v>
+      </c>
+      <c r="F5">
+        <v>0.3467</v>
+      </c>
+      <c r="G5">
+        <v>0.3467</v>
+      </c>
+      <c r="H5">
+        <v>0.3467</v>
+      </c>
+      <c r="I5">
+        <v>0.3467</v>
+      </c>
+      <c r="J5">
+        <v>0.3467</v>
+      </c>
+      <c r="K5">
+        <v>0.3467</v>
+      </c>
+      <c r="L5">
+        <v>0.3463</v>
+      </c>
+      <c r="M5">
+        <v>0.3466</v>
+      </c>
+      <c r="N5">
+        <v>0.3462</v>
+      </c>
+      <c r="O5">
+        <v>0.3462</v>
+      </c>
+      <c r="P5">
+        <v>0.3462</v>
+      </c>
+      <c r="Q5">
+        <v>0.3463</v>
+      </c>
+      <c r="R5">
+        <v>0.3466</v>
+      </c>
+      <c r="S5">
+        <v>0.3467</v>
+      </c>
+      <c r="T5">
+        <v>0.3467</v>
+      </c>
+      <c r="U5">
+        <v>0.3467</v>
+      </c>
+      <c r="V5">
+        <v>0.3467</v>
+      </c>
+      <c r="W5">
+        <v>0.3462</v>
+      </c>
+      <c r="X5">
+        <v>0.3463</v>
+      </c>
+      <c r="Y5">
+        <v>0.3467</v>
+      </c>
+      <c r="Z5">
+        <v>0.3466</v>
+      </c>
+      <c r="AA5">
+        <v>0.3466</v>
+      </c>
+      <c r="AB5">
+        <v>0.3466</v>
+      </c>
+      <c r="AC5">
+        <v>0.3466</v>
+      </c>
+      <c r="AD5">
+        <v>0.3467</v>
+      </c>
+      <c r="AE5">
+        <v>0.3466</v>
+      </c>
+      <c r="AF5">
+        <v>0.325</v>
+      </c>
+      <c r="AG5">
+        <v>0.358</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>0.3308</v>
+      </c>
+      <c r="C6">
+        <v>0.3288</v>
+      </c>
+      <c r="D6">
+        <v>0.3289</v>
+      </c>
+      <c r="E6">
+        <v>0.329</v>
+      </c>
+      <c r="F6">
+        <v>0.329</v>
+      </c>
+      <c r="G6">
+        <v>0.3286</v>
+      </c>
+      <c r="H6">
+        <v>0.3288</v>
+      </c>
+      <c r="I6">
+        <v>0.3303</v>
+      </c>
+      <c r="J6">
+        <v>0.3293</v>
+      </c>
+      <c r="K6">
+        <v>0.3291</v>
+      </c>
+      <c r="L6">
+        <v>0.3244</v>
+      </c>
+      <c r="M6">
+        <v>0.321</v>
+      </c>
+      <c r="N6">
+        <v>0.3285</v>
+      </c>
+      <c r="O6">
+        <v>0.3208</v>
+      </c>
+      <c r="P6">
+        <v>0.3281</v>
+      </c>
+      <c r="Q6">
+        <v>0.3283</v>
+      </c>
+      <c r="R6">
+        <v>0.3285</v>
+      </c>
+      <c r="S6">
+        <v>0.3287</v>
+      </c>
+      <c r="T6">
+        <v>0.3287</v>
+      </c>
+      <c r="U6">
+        <v>0.3287</v>
+      </c>
+      <c r="V6">
+        <v>0.3286</v>
+      </c>
+      <c r="W6">
+        <v>0.3284</v>
+      </c>
+      <c r="X6">
+        <v>0.3284</v>
+      </c>
+      <c r="Y6">
+        <v>0.3286</v>
+      </c>
+      <c r="Z6">
+        <v>0.3287</v>
+      </c>
+      <c r="AA6">
+        <v>0.3287</v>
+      </c>
+      <c r="AB6">
+        <v>0.3273</v>
+      </c>
+      <c r="AC6">
+        <v>0.3287</v>
+      </c>
+      <c r="AD6">
+        <v>0.3287</v>
+      </c>
+      <c r="AE6">
+        <v>0.3287</v>
+      </c>
+      <c r="AF6">
+        <v>0.31</v>
+      </c>
+      <c r="AG6">
+        <v>0.335</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>0.353</v>
+      </c>
+      <c r="C7">
+        <v>0.3506</v>
+      </c>
+      <c r="D7">
+        <v>0.3507</v>
+      </c>
+      <c r="E7">
+        <v>0.3508</v>
+      </c>
+      <c r="F7">
+        <v>0.3508</v>
+      </c>
+      <c r="G7">
+        <v>0.3506</v>
+      </c>
+      <c r="H7">
+        <v>0.3506</v>
+      </c>
+      <c r="I7">
+        <v>0.3524</v>
+      </c>
+      <c r="J7">
+        <v>0.3512</v>
+      </c>
+      <c r="K7">
+        <v>0.351</v>
+      </c>
+      <c r="L7">
+        <v>0.346</v>
+      </c>
+      <c r="M7">
+        <v>0.349</v>
+      </c>
+      <c r="N7">
+        <v>0.3505</v>
+      </c>
+      <c r="O7">
+        <v>0.3481</v>
+      </c>
+      <c r="P7">
+        <v>0.3502</v>
+      </c>
+      <c r="Q7">
+        <v>0.3502</v>
+      </c>
+      <c r="R7">
+        <v>0.3504</v>
+      </c>
+      <c r="S7">
+        <v>0.3505</v>
+      </c>
+      <c r="T7">
+        <v>0.3505</v>
+      </c>
+      <c r="U7">
+        <v>0.3505</v>
+      </c>
+      <c r="V7">
+        <v>0.3505</v>
+      </c>
+      <c r="W7">
+        <v>0.3504</v>
+      </c>
+      <c r="X7">
+        <v>0.3504</v>
+      </c>
+      <c r="Y7">
+        <v>0.3504</v>
+      </c>
+      <c r="Z7">
+        <v>0.3505</v>
+      </c>
+      <c r="AA7">
+        <v>0.3505</v>
+      </c>
+      <c r="AB7">
+        <v>0.3498</v>
+      </c>
+      <c r="AC7">
+        <v>0.3505</v>
+      </c>
+      <c r="AD7">
+        <v>0.3505</v>
+      </c>
+      <c r="AE7">
+        <v>0.3505</v>
+      </c>
+      <c r="AF7">
+        <v>0.325</v>
+      </c>
+      <c r="AG7">
+        <v>0.358</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>0.339</v>
+      </c>
+      <c r="C8">
+        <v>0.339</v>
+      </c>
+      <c r="D8">
+        <v>0.3393</v>
+      </c>
+      <c r="E8">
+        <v>0.3401</v>
+      </c>
+      <c r="F8">
+        <v>0.3353</v>
+      </c>
+      <c r="G8">
+        <v>0.3396</v>
+      </c>
+      <c r="H8">
+        <v>0.3387</v>
+      </c>
+      <c r="I8">
+        <v>0.339</v>
+      </c>
+      <c r="J8">
+        <v>0.3388</v>
+      </c>
+      <c r="K8">
+        <v>0.3341</v>
+      </c>
+      <c r="L8">
+        <v>0.3378</v>
+      </c>
+      <c r="M8">
+        <v>0.33</v>
+      </c>
+      <c r="N8">
+        <v>0.3299</v>
+      </c>
+      <c r="O8">
+        <v>0.3326</v>
+      </c>
+      <c r="P8">
+        <v>0.3299</v>
+      </c>
+      <c r="Q8">
+        <v>0.3299</v>
+      </c>
+      <c r="R8">
+        <v>0.3298</v>
+      </c>
+      <c r="S8">
+        <v>0.3306</v>
+      </c>
+      <c r="T8">
+        <v>0.3302</v>
+      </c>
+      <c r="U8">
+        <v>0.3392</v>
+      </c>
+      <c r="V8">
+        <v>0.3335</v>
+      </c>
+      <c r="W8">
+        <v>0.3299</v>
+      </c>
+      <c r="X8">
+        <v>0.339</v>
+      </c>
+      <c r="Y8">
+        <v>0.3366</v>
+      </c>
+      <c r="Z8">
+        <v>0.3318</v>
+      </c>
+      <c r="AA8">
+        <v>0.3396</v>
+      </c>
+      <c r="AB8">
+        <v>0.3387</v>
+      </c>
+      <c r="AC8">
+        <v>0.3301</v>
+      </c>
+      <c r="AD8">
+        <v>0.3388</v>
+      </c>
+      <c r="AE8">
+        <v>0.3373</v>
+      </c>
+      <c r="AF8">
+        <v>0.31</v>
+      </c>
+      <c r="AG8">
+        <v>0.335</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>0.3599</v>
+      </c>
+      <c r="C9">
+        <v>0.3599</v>
+      </c>
+      <c r="D9">
+        <v>0.3603</v>
+      </c>
+      <c r="E9">
+        <v>0.3604</v>
+      </c>
+      <c r="F9">
+        <v>0.3555</v>
+      </c>
+      <c r="G9">
+        <v>0.3602</v>
+      </c>
+      <c r="H9">
+        <v>0.3596</v>
+      </c>
+      <c r="I9">
+        <v>0.3598</v>
+      </c>
+      <c r="J9">
+        <v>0.3597</v>
+      </c>
+      <c r="K9">
+        <v>0.3539</v>
+      </c>
+      <c r="L9">
+        <v>0.3585</v>
+      </c>
+      <c r="M9">
+        <v>0.3495</v>
+      </c>
+      <c r="N9">
+        <v>0.3494</v>
+      </c>
+      <c r="O9">
+        <v>0.3523</v>
+      </c>
+      <c r="P9">
+        <v>0.3494</v>
+      </c>
+      <c r="Q9">
+        <v>0.3494</v>
+      </c>
+      <c r="R9">
+        <v>0.3494</v>
+      </c>
+      <c r="S9">
+        <v>0.3498</v>
+      </c>
+      <c r="T9">
+        <v>0.3494</v>
+      </c>
+      <c r="U9">
+        <v>0.3596</v>
+      </c>
+      <c r="V9">
+        <v>0.3532</v>
+      </c>
+      <c r="W9">
+        <v>0.3494</v>
+      </c>
+      <c r="X9">
+        <v>0.3594</v>
+      </c>
+      <c r="Y9">
+        <v>0.3564</v>
+      </c>
+      <c r="Z9">
+        <v>0.3516</v>
+      </c>
+      <c r="AA9">
+        <v>0.3602</v>
+      </c>
+      <c r="AB9">
+        <v>0.3596</v>
+      </c>
+      <c r="AC9">
+        <v>0.3497</v>
+      </c>
+      <c r="AD9">
+        <v>0.3596</v>
+      </c>
+      <c r="AE9">
+        <v>0.3579</v>
+      </c>
+      <c r="AF9">
+        <v>0.325</v>
+      </c>
+      <c r="AG9">
+        <v>0.358</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>0.3231</v>
+      </c>
+      <c r="C10">
+        <v>0.3493</v>
+      </c>
+      <c r="D10">
+        <v>0.3432</v>
+      </c>
+      <c r="E10">
+        <v>0.342</v>
+      </c>
+      <c r="F10">
+        <v>0.3328</v>
+      </c>
+      <c r="G10">
+        <v>0.3184</v>
+      </c>
+      <c r="H10">
+        <v>0.3441</v>
+      </c>
+      <c r="I10">
+        <v>0.3189</v>
+      </c>
+      <c r="J10">
+        <v>0.321</v>
+      </c>
+      <c r="K10">
+        <v>0.3286</v>
+      </c>
+      <c r="L10">
+        <v>0.3195</v>
+      </c>
+      <c r="M10">
+        <v>0.3192</v>
+      </c>
+      <c r="N10">
+        <v>0.3424</v>
+      </c>
+      <c r="O10">
+        <v>0.3193</v>
+      </c>
+      <c r="P10">
+        <v>0.3354</v>
+      </c>
+      <c r="Q10">
+        <v>0.3209</v>
+      </c>
+      <c r="R10">
+        <v>0.3263</v>
+      </c>
+      <c r="S10">
+        <v>0.3492</v>
+      </c>
+      <c r="T10">
+        <v>0.3494</v>
+      </c>
+      <c r="U10">
+        <v>0.319</v>
+      </c>
+      <c r="V10">
+        <v>0.3374</v>
+      </c>
+      <c r="W10">
+        <v>0.3189</v>
+      </c>
+      <c r="X10">
+        <v>0.3185</v>
+      </c>
+      <c r="Y10">
+        <v>0.3307</v>
+      </c>
+      <c r="Z10">
+        <v>0.3402</v>
+      </c>
+      <c r="AA10">
+        <v>0.3216</v>
+      </c>
+      <c r="AB10">
+        <v>0.3181</v>
+      </c>
+      <c r="AC10">
+        <v>0.346</v>
+      </c>
+      <c r="AD10">
+        <v>0.3186</v>
+      </c>
+      <c r="AE10">
+        <v>0.3379</v>
+      </c>
+      <c r="AF10">
+        <v>0.31</v>
+      </c>
+      <c r="AG10">
+        <v>0.335</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>0.3465</v>
+      </c>
+      <c r="C11">
+        <v>0.3599</v>
+      </c>
+      <c r="D11">
+        <v>0.3567</v>
+      </c>
+      <c r="E11">
+        <v>0.3562</v>
+      </c>
+      <c r="F11">
+        <v>0.3513</v>
+      </c>
+      <c r="G11">
+        <v>0.3438</v>
+      </c>
+      <c r="H11">
+        <v>0.3571</v>
+      </c>
+      <c r="I11">
+        <v>0.344</v>
+      </c>
+      <c r="J11">
+        <v>0.3451</v>
+      </c>
+      <c r="K11">
+        <v>0.349</v>
+      </c>
+      <c r="L11">
+        <v>0.3443</v>
+      </c>
+      <c r="M11">
+        <v>0.3442</v>
+      </c>
+      <c r="N11">
+        <v>0.3565</v>
+      </c>
+      <c r="O11">
+        <v>0.3442</v>
+      </c>
+      <c r="P11">
+        <v>0.3526</v>
+      </c>
+      <c r="Q11">
+        <v>0.3453</v>
+      </c>
+      <c r="R11">
+        <v>0.3479</v>
+      </c>
+      <c r="S11">
+        <v>0.3598</v>
+      </c>
+      <c r="T11">
+        <v>0.3599</v>
+      </c>
+      <c r="U11">
+        <v>0.344</v>
+      </c>
+      <c r="V11">
+        <v>0.3536</v>
+      </c>
+      <c r="W11">
+        <v>0.3442</v>
+      </c>
+      <c r="X11">
+        <v>0.344</v>
+      </c>
+      <c r="Y11">
+        <v>0.3504</v>
+      </c>
+      <c r="Z11">
+        <v>0.3551</v>
+      </c>
+      <c r="AA11">
+        <v>0.3456</v>
+      </c>
+      <c r="AB11">
+        <v>0.3438</v>
+      </c>
+      <c r="AC11">
+        <v>0.3597</v>
+      </c>
+      <c r="AD11">
+        <v>0.3441</v>
+      </c>
+      <c r="AE11">
+        <v>0.354</v>
+      </c>
+      <c r="AF11">
+        <v>0.325</v>
+      </c>
+      <c r="AG11">
+        <v>0.358</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>0.3253</v>
+      </c>
+      <c r="C12">
+        <v>0.3133</v>
+      </c>
+      <c r="D12">
+        <v>0.3139</v>
+      </c>
+      <c r="E12">
+        <v>0.3155</v>
+      </c>
+      <c r="F12">
+        <v>0.318</v>
+      </c>
+      <c r="G12">
+        <v>0.3286</v>
+      </c>
+      <c r="H12">
+        <v>0.3128</v>
+      </c>
+      <c r="I12">
+        <v>0.3244</v>
+      </c>
+      <c r="J12">
+        <v>0.3233</v>
+      </c>
+      <c r="K12">
+        <v>0.3195</v>
+      </c>
+      <c r="L12">
+        <v>0.3243</v>
+      </c>
+      <c r="M12">
+        <v>0.3246</v>
+      </c>
+      <c r="N12">
+        <v>0.3137</v>
+      </c>
+      <c r="O12">
+        <v>0.3245</v>
+      </c>
+      <c r="P12">
+        <v>0.3171</v>
+      </c>
+      <c r="Q12">
+        <v>0.3243</v>
+      </c>
+      <c r="R12">
+        <v>0.3199</v>
+      </c>
+      <c r="S12">
+        <v>0.3114</v>
+      </c>
+      <c r="T12">
+        <v>0.3119</v>
+      </c>
+      <c r="U12">
+        <v>0.3276</v>
+      </c>
+      <c r="V12">
+        <v>0.3152</v>
+      </c>
+      <c r="W12">
+        <v>0.3224</v>
+      </c>
+      <c r="X12">
+        <v>0.3257</v>
+      </c>
+      <c r="Y12">
+        <v>0.3144</v>
+      </c>
+      <c r="Z12">
+        <v>0.3151</v>
+      </c>
+      <c r="AA12">
+        <v>0.3212</v>
+      </c>
+      <c r="AB12">
+        <v>0.3267</v>
+      </c>
+      <c r="AC12">
+        <v>0.3145</v>
+      </c>
+      <c r="AD12">
+        <v>0.3145</v>
+      </c>
+      <c r="AE12">
+        <v>0.3125</v>
+      </c>
+      <c r="AF12">
+        <v>0.31</v>
+      </c>
+      <c r="AG12">
+        <v>0.335</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>0.35</v>
+      </c>
+      <c r="C13">
+        <v>0.3419</v>
+      </c>
+      <c r="D13">
+        <v>0.3427</v>
+      </c>
+      <c r="E13">
+        <v>0.3434</v>
+      </c>
+      <c r="F13">
+        <v>0.3454</v>
+      </c>
+      <c r="G13">
+        <v>0.3521</v>
+      </c>
+      <c r="H13">
+        <v>0.342</v>
+      </c>
+      <c r="I13">
+        <v>0.3499</v>
+      </c>
+      <c r="J13">
+        <v>0.3492</v>
+      </c>
+      <c r="K13">
+        <v>0.3465</v>
+      </c>
+      <c r="L13">
+        <v>0.3499</v>
+      </c>
+      <c r="M13">
+        <v>0.35</v>
+      </c>
+      <c r="N13">
+        <v>0.3426</v>
+      </c>
+      <c r="O13">
+        <v>0.3499</v>
+      </c>
+      <c r="P13">
+        <v>0.3449</v>
+      </c>
+      <c r="Q13">
+        <v>0.3499</v>
+      </c>
+      <c r="R13">
+        <v>0.3467</v>
+      </c>
+      <c r="S13">
+        <v>0.3409</v>
+      </c>
+      <c r="T13">
+        <v>0.3412</v>
+      </c>
+      <c r="U13">
+        <v>0.3514</v>
+      </c>
+      <c r="V13">
+        <v>0.3435</v>
+      </c>
+      <c r="W13">
+        <v>0.3481</v>
+      </c>
+      <c r="X13">
+        <v>0.3509</v>
+      </c>
+      <c r="Y13">
+        <v>0.3429</v>
+      </c>
+      <c r="Z13">
+        <v>0.3431</v>
+      </c>
+      <c r="AA13">
+        <v>0.3477</v>
+      </c>
+      <c r="AB13">
+        <v>0.3514</v>
+      </c>
+      <c r="AC13">
+        <v>0.3428</v>
+      </c>
+      <c r="AD13">
+        <v>0.3428</v>
+      </c>
+      <c r="AE13">
+        <v>0.3418</v>
+      </c>
+      <c r="AF13">
+        <v>0.325</v>
+      </c>
+      <c r="AG13">
+        <v>0.358</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>0.3266</v>
+      </c>
+      <c r="C14">
+        <v>0.3268</v>
+      </c>
+      <c r="D14">
+        <v>0.3274</v>
+      </c>
+      <c r="E14">
+        <v>0.3277</v>
+      </c>
+      <c r="F14">
+        <v>0.3292</v>
+      </c>
+      <c r="G14">
+        <v>0.3305</v>
+      </c>
+      <c r="H14">
+        <v>0.3305</v>
+      </c>
+      <c r="I14">
+        <v>0.3305</v>
+      </c>
+      <c r="J14">
+        <v>0.3304</v>
+      </c>
+      <c r="K14">
+        <v>0.3302</v>
+      </c>
+      <c r="L14">
+        <v>0.3251</v>
+      </c>
+      <c r="M14">
+        <v>0.3224</v>
+      </c>
+      <c r="N14">
+        <v>0.3304</v>
+      </c>
+      <c r="O14">
+        <v>0.3304</v>
+      </c>
+      <c r="P14">
+        <v>0.3304</v>
+      </c>
+      <c r="Q14">
+        <v>0.3265</v>
+      </c>
+      <c r="R14">
+        <v>0.3284</v>
+      </c>
+      <c r="S14">
+        <v>0.3274</v>
+      </c>
+      <c r="T14">
+        <v>0.3268</v>
+      </c>
+      <c r="U14">
+        <v>0.33</v>
+      </c>
+      <c r="V14">
+        <v>0.3305</v>
+      </c>
+      <c r="W14">
+        <v>0.3263</v>
+      </c>
+      <c r="X14">
+        <v>0.3268</v>
+      </c>
+      <c r="Y14">
+        <v>0.3267</v>
+      </c>
+      <c r="Z14">
+        <v>0.327</v>
+      </c>
+      <c r="AA14">
+        <v>0.3267</v>
+      </c>
+      <c r="AB14">
+        <v>0.3265</v>
+      </c>
+      <c r="AC14">
+        <v>0.3194</v>
+      </c>
+      <c r="AD14">
+        <v>0.3193</v>
+      </c>
+      <c r="AE14">
+        <v>0.3196</v>
+      </c>
+      <c r="AF14">
+        <v>0.31</v>
+      </c>
+      <c r="AG14">
+        <v>0.335</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <v>0.3537</v>
+      </c>
+      <c r="C15">
+        <v>0.3538</v>
+      </c>
+      <c r="D15">
+        <v>0.3537</v>
+      </c>
+      <c r="E15">
+        <v>0.3537</v>
+      </c>
+      <c r="F15">
+        <v>0.3534</v>
+      </c>
+      <c r="G15">
+        <v>0.3535</v>
+      </c>
+      <c r="H15">
+        <v>0.3535</v>
+      </c>
+      <c r="I15">
+        <v>0.3535</v>
+      </c>
+      <c r="J15">
+        <v>0.3534</v>
+      </c>
+      <c r="K15">
+        <v>0.3534</v>
+      </c>
+      <c r="L15">
+        <v>0.3512</v>
+      </c>
+      <c r="M15">
+        <v>0.3521</v>
+      </c>
+      <c r="N15">
+        <v>0.3534</v>
+      </c>
+      <c r="O15">
+        <v>0.3534</v>
+      </c>
+      <c r="P15">
+        <v>0.3534</v>
+      </c>
+      <c r="Q15">
+        <v>0.3536</v>
+      </c>
+      <c r="R15">
+        <v>0.3535</v>
+      </c>
+      <c r="S15">
+        <v>0.3537</v>
+      </c>
+      <c r="T15">
+        <v>0.3537</v>
+      </c>
+      <c r="U15">
+        <v>0.3533</v>
+      </c>
+      <c r="V15">
+        <v>0.3535</v>
+      </c>
+      <c r="W15">
+        <v>0.3535</v>
+      </c>
+      <c r="X15">
+        <v>0.3537</v>
+      </c>
+      <c r="Y15">
+        <v>0.3537</v>
+      </c>
+      <c r="Z15">
+        <v>0.3539</v>
+      </c>
+      <c r="AA15">
+        <v>0.3537</v>
+      </c>
+      <c r="AB15">
+        <v>0.3537</v>
+      </c>
+      <c r="AC15">
+        <v>0.3487</v>
+      </c>
+      <c r="AD15">
+        <v>0.3486</v>
+      </c>
+      <c r="AE15">
+        <v>0.3487</v>
+      </c>
+      <c r="AF15">
+        <v>0.325</v>
+      </c>
+      <c r="AG15">
+        <v>0.358</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/RyR_Generator/2_Results/Target.xlsx
+++ b/RyR_Generator/2_Results/Target.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A4:M27"/>
+  <dimension ref="A4:AG27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -428,39 +428,99 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3193</v>
+        <v>0.3254</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3196</v>
+        <v>0.3254</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3196</v>
+        <v>0.3254</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3195</v>
+        <v>0.3254</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3196</v>
+        <v>0.3254</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3195</v>
+        <v>0.3254</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3196</v>
+        <v>0.3254</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3196</v>
+        <v>0.3254</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3196</v>
+        <v>0.3254</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3195</v>
+        <v>0.3254</v>
       </c>
       <c r="L4" t="n">
+        <v>0.3249</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.3251</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.3248</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.3248</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.3248</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.3249</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.3253</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.3254</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.3251</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.3252</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.3254</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.3248</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.3248</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.3252</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.3253</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.3253</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.3254</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.3253</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.3252</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.3254</v>
+      </c>
+      <c r="AF4" t="n">
         <v>0.31</v>
       </c>
-      <c r="M4" t="n">
+      <c r="AG4" t="n">
         <v>0.335</v>
       </c>
     </row>
@@ -471,39 +531,99 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3445</v>
+        <v>0.3467</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3448</v>
+        <v>0.3467</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3448</v>
+        <v>0.3467</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3447</v>
+        <v>0.3467</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3448</v>
+        <v>0.3467</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3447</v>
+        <v>0.3467</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3448</v>
+        <v>0.3467</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3448</v>
+        <v>0.3467</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3448</v>
+        <v>0.3467</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3447</v>
+        <v>0.3467</v>
       </c>
       <c r="L5" t="n">
+        <v>0.3463</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.3466</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.3462</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.3462</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.3462</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.3463</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.3466</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.3467</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.3467</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.3467</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.3467</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.3462</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.3463</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.3467</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.3466</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.3466</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.3466</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.3466</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.3467</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.3466</v>
+      </c>
+      <c r="AF5" t="n">
         <v>0.325</v>
       </c>
-      <c r="M5" t="n">
+      <c r="AG5" t="n">
         <v>0.358</v>
       </c>
     </row>
@@ -514,39 +634,99 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3271</v>
+        <v>0.3308</v>
       </c>
       <c r="C6" t="n">
-        <v>0.325</v>
+        <v>0.3288</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3245</v>
+        <v>0.3289</v>
       </c>
       <c r="E6" t="n">
+        <v>0.329</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.329</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.3286</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.3288</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.3303</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.3293</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.3291</v>
+      </c>
+      <c r="L6" t="n">
         <v>0.3244</v>
       </c>
-      <c r="F6" t="n">
-        <v>0.3246</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.3243</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.3241</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.3244</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.3245</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.3246</v>
-      </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
+        <v>0.321</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.3285</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.3208</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.3281</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.3283</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.3285</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.3287</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.3287</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.3287</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.3286</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.3284</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.3284</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.3286</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.3287</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.3287</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.3273</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.3287</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.3287</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.3287</v>
+      </c>
+      <c r="AF6" t="n">
         <v>0.31</v>
       </c>
-      <c r="M6" t="n">
+      <c r="AG6" t="n">
         <v>0.335</v>
       </c>
     </row>
@@ -557,39 +737,99 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3503</v>
+        <v>0.353</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3486</v>
+        <v>0.3506</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3482</v>
+        <v>0.3507</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3482</v>
+        <v>0.3508</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3483</v>
+        <v>0.3508</v>
       </c>
       <c r="G7" t="n">
+        <v>0.3506</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.3506</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.3524</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.3512</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.351</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.346</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.349</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.3505</v>
+      </c>
+      <c r="O7" t="n">
         <v>0.3481</v>
       </c>
-      <c r="H7" t="n">
-        <v>0.3479</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.3482</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.3481</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.3482</v>
-      </c>
-      <c r="L7" t="n">
+      <c r="P7" t="n">
+        <v>0.3502</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.3502</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.3504</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.3505</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.3505</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.3505</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.3505</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.3504</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.3504</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.3504</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.3505</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.3505</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0.3498</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.3505</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.3505</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0.3505</v>
+      </c>
+      <c r="AF7" t="n">
         <v>0.325</v>
       </c>
-      <c r="M7" t="n">
+      <c r="AG7" t="n">
         <v>0.358</v>
       </c>
     </row>
@@ -600,39 +840,99 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3309</v>
+        <v>0.339</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3314</v>
+        <v>0.339</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3307</v>
+        <v>0.3393</v>
       </c>
       <c r="E8" t="n">
+        <v>0.3401</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.3353</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.3396</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.3387</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.339</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.3388</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.3341</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.3378</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.3299</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.3326</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.3299</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.3299</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.3298</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.3306</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.3302</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.3392</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.3335</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.3299</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.339</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.3366</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.3318</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.3396</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0.3387</v>
+      </c>
+      <c r="AC8" t="n">
         <v>0.3301</v>
       </c>
-      <c r="F8" t="n">
-        <v>0.3308</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.3307</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.3309</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.3308</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.3302</v>
-      </c>
-      <c r="L8" t="n">
+      <c r="AD8" t="n">
+        <v>0.3388</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0.3373</v>
+      </c>
+      <c r="AF8" t="n">
         <v>0.31</v>
       </c>
-      <c r="M8" t="n">
+      <c r="AG8" t="n">
         <v>0.335</v>
       </c>
     </row>
@@ -643,39 +943,99 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.3534</v>
+        <v>0.3599</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3536</v>
+        <v>0.3599</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3531</v>
+        <v>0.3603</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3527</v>
+        <v>0.3604</v>
       </c>
       <c r="F9" t="n">
+        <v>0.3555</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.3602</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.3596</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.3598</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.3597</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.3539</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.3585</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.3495</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.3494</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.3523</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.3494</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.3494</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.3494</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.3498</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.3494</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.3596</v>
+      </c>
+      <c r="V9" t="n">
         <v>0.3532</v>
       </c>
-      <c r="G9" t="n">
-        <v>0.3531</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.3527</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.3531</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.3533</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.3527</v>
-      </c>
-      <c r="L9" t="n">
+      <c r="W9" t="n">
+        <v>0.3494</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.3594</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.3564</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.3516</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.3602</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.3596</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.3497</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.3596</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.3579</v>
+      </c>
+      <c r="AF9" t="n">
         <v>0.325</v>
       </c>
-      <c r="M9" t="n">
+      <c r="AG9" t="n">
         <v>0.358</v>
       </c>
     </row>
@@ -686,39 +1046,99 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3222</v>
+        <v>0.3231</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3222</v>
+        <v>0.3493</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3223</v>
+        <v>0.3432</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3222</v>
+        <v>0.342</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3223</v>
+        <v>0.3328</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3224</v>
+        <v>0.3184</v>
       </c>
       <c r="H10" t="n">
-        <v>0.322</v>
+        <v>0.3441</v>
       </c>
       <c r="I10" t="n">
-        <v>0.322</v>
+        <v>0.3189</v>
       </c>
       <c r="J10" t="n">
-        <v>0.322</v>
+        <v>0.321</v>
       </c>
       <c r="K10" t="n">
-        <v>0.3223</v>
+        <v>0.3286</v>
       </c>
       <c r="L10" t="n">
+        <v>0.3195</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.3192</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.3424</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.3193</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.3354</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.3209</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.3263</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.3492</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.3494</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.319</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.3374</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.3189</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.3185</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.3307</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.3402</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.3216</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.3181</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.346</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.3186</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.3379</v>
+      </c>
+      <c r="AF10" t="n">
         <v>0.31</v>
       </c>
-      <c r="M10" t="n">
+      <c r="AG10" t="n">
         <v>0.335</v>
       </c>
     </row>
@@ -729,39 +1149,99 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>0.3465</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3599</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3567</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.3562</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.3513</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.3438</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.3571</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.344</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.3451</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.349</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.3443</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.3442</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.3565</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.3442</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.3526</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.3453</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.3479</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.3598</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.3599</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.344</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.3536</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.3442</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.344</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.3504</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.3551</v>
+      </c>
+      <c r="AA11" t="n">
         <v>0.3456</v>
       </c>
-      <c r="C11" t="n">
-        <v>0.3461</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.3461</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.3461</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.3462</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.3462</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.346</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.3461</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.3461</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.3461</v>
-      </c>
-      <c r="L11" t="n">
+      <c r="AB11" t="n">
+        <v>0.3438</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0.3597</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0.3441</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0.354</v>
+      </c>
+      <c r="AF11" t="n">
         <v>0.325</v>
       </c>
-      <c r="M11" t="n">
+      <c r="AG11" t="n">
         <v>0.358</v>
       </c>
     </row>
@@ -772,39 +1252,99 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3197</v>
+        <v>0.3253</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3185</v>
+        <v>0.3133</v>
       </c>
       <c r="D12" t="n">
+        <v>0.3139</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.3155</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.318</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.3286</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.3128</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.3244</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.3233</v>
+      </c>
+      <c r="K12" t="n">
         <v>0.3195</v>
       </c>
-      <c r="E12" t="n">
-        <v>0.3192</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.3183</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.3188</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.3188</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.3188</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.319</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.319</v>
-      </c>
       <c r="L12" t="n">
+        <v>0.3243</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.3246</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.3137</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.3245</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.3171</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.3243</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.3199</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.3114</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.3119</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.3276</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.3152</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.3224</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.3257</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0.3144</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0.3151</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0.3212</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0.3267</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0.3145</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0.3145</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="AF12" t="n">
         <v>0.31</v>
       </c>
-      <c r="M12" t="n">
+      <c r="AG12" t="n">
         <v>0.335</v>
       </c>
     </row>
@@ -815,39 +1355,99 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3443</v>
+        <v>0.35</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3437</v>
+        <v>0.3419</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3442</v>
+        <v>0.3427</v>
       </c>
       <c r="E13" t="n">
-        <v>0.344</v>
+        <v>0.3434</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3434</v>
+        <v>0.3454</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3439</v>
+        <v>0.3521</v>
       </c>
       <c r="H13" t="n">
-        <v>0.3439</v>
+        <v>0.342</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3438</v>
+        <v>0.3499</v>
       </c>
       <c r="J13" t="n">
-        <v>0.3438</v>
+        <v>0.3492</v>
       </c>
       <c r="K13" t="n">
-        <v>0.3438</v>
+        <v>0.3465</v>
       </c>
       <c r="L13" t="n">
+        <v>0.3499</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.3426</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.3499</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.3449</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.3499</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.3467</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.3409</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.3412</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.3514</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.3435</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.3481</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0.3509</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0.3429</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0.3431</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0.3477</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0.3514</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0.3428</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0.3428</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0.3418</v>
+      </c>
+      <c r="AF13" t="n">
         <v>0.325</v>
       </c>
-      <c r="M13" t="n">
+      <c r="AG13" t="n">
         <v>0.358</v>
       </c>
     </row>
@@ -858,39 +1458,99 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3332</v>
+        <v>0.3266</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3332</v>
+        <v>0.3268</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3344</v>
+        <v>0.3274</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3354</v>
+        <v>0.3277</v>
       </c>
       <c r="F14" t="n">
-        <v>0.336</v>
+        <v>0.3292</v>
       </c>
       <c r="G14" t="n">
-        <v>0.336</v>
+        <v>0.3305</v>
       </c>
       <c r="H14" t="n">
-        <v>0.336</v>
+        <v>0.3305</v>
       </c>
       <c r="I14" t="n">
-        <v>0.336</v>
+        <v>0.3305</v>
       </c>
       <c r="J14" t="n">
-        <v>0.336</v>
+        <v>0.3304</v>
       </c>
       <c r="K14" t="n">
-        <v>0.336</v>
+        <v>0.3302</v>
       </c>
       <c r="L14" t="n">
+        <v>0.3251</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.3224</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.3304</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.3304</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.3304</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.3265</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.3284</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.3274</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.3268</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.3305</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.3263</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0.3268</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0.3267</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0.327</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0.3267</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0.3265</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0.3194</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0.3193</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0.3196</v>
+      </c>
+      <c r="AF14" t="n">
         <v>0.31</v>
       </c>
-      <c r="M14" t="n">
+      <c r="AG14" t="n">
         <v>0.335</v>
       </c>
     </row>
@@ -901,39 +1561,99 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.3527</v>
+        <v>0.3537</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3527</v>
+        <v>0.3538</v>
       </c>
       <c r="D15" t="n">
-        <v>0.354</v>
+        <v>0.3537</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3553</v>
+        <v>0.3537</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3559</v>
+        <v>0.3534</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3559</v>
+        <v>0.3535</v>
       </c>
       <c r="H15" t="n">
-        <v>0.3559</v>
+        <v>0.3535</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3559</v>
+        <v>0.3535</v>
       </c>
       <c r="J15" t="n">
-        <v>0.3559</v>
+        <v>0.3534</v>
       </c>
       <c r="K15" t="n">
-        <v>0.3559</v>
+        <v>0.3534</v>
       </c>
       <c r="L15" t="n">
+        <v>0.3512</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.3521</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.3534</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.3534</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.3534</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.3536</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.3535</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.3537</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.3537</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.3533</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.3535</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.3535</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0.3537</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0.3537</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0.3539</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0.3537</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0.3537</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0.3487</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0.3486</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0.3487</v>
+      </c>
+      <c r="AF15" t="n">
         <v>0.325</v>
       </c>
-      <c r="M15" t="n">
+      <c r="AG15" t="n">
         <v>0.358</v>
       </c>
     </row>
@@ -944,39 +1664,99 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.3217</v>
+        <v>0.3358</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3215</v>
+        <v>0.327</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3214</v>
+        <v>0.332</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3215</v>
+        <v>0.3339</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3215</v>
+        <v>0.3267</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3215</v>
+        <v>0.3267</v>
       </c>
       <c r="H16" t="n">
-        <v>0.3215</v>
+        <v>0.3319</v>
       </c>
       <c r="I16" t="n">
-        <v>0.3214</v>
+        <v>0.3398</v>
       </c>
       <c r="J16" t="n">
-        <v>0.3214</v>
+        <v>0.3376</v>
       </c>
       <c r="K16" t="n">
-        <v>0.3215</v>
+        <v>0.3354</v>
       </c>
       <c r="L16" t="n">
+        <v>0.3377</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.3384</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.3316</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.3362</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.3329</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.3319</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.3316</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.3315</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.3315</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.339</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.3342</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.3404</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0.3403</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0.3337</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0.3322</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0.339</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0.3407</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0.3316</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0.3313</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0.3349</v>
+      </c>
+      <c r="AF16" t="n">
         <v>0.31</v>
       </c>
-      <c r="M16" t="n">
+      <c r="AG16" t="n">
         <v>0.335</v>
       </c>
     </row>
@@ -987,39 +1767,99 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.346</v>
+        <v>0.3549</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3464</v>
+        <v>0.3517</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3463</v>
+        <v>0.3513</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3463</v>
+        <v>0.3527</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3463</v>
+        <v>0.3511</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3464</v>
+        <v>0.3511</v>
       </c>
       <c r="H17" t="n">
-        <v>0.3463</v>
+        <v>0.3511</v>
       </c>
       <c r="I17" t="n">
-        <v>0.3463</v>
+        <v>0.3598</v>
       </c>
       <c r="J17" t="n">
-        <v>0.3463</v>
+        <v>0.3573</v>
       </c>
       <c r="K17" t="n">
-        <v>0.3464</v>
+        <v>0.3548</v>
       </c>
       <c r="L17" t="n">
+        <v>0.3574</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.3582</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.3505</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.3554</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.352</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.3507</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.3508</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.3504</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.3504</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.3589</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.3532</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.3606</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0.3603</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0.3525</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0.3508</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0.3589</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0.3608</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0.3505</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0.3501</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0.3542</v>
+      </c>
+      <c r="AF17" t="n">
         <v>0.325</v>
       </c>
-      <c r="M17" t="n">
+      <c r="AG17" t="n">
         <v>0.358</v>
       </c>
     </row>
@@ -1030,39 +1870,99 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.3233</v>
+        <v>0.3254</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3231</v>
+        <v>0.3247</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3252</v>
+        <v>0.3254</v>
       </c>
       <c r="E18" t="n">
-        <v>0.325</v>
+        <v>0.3255</v>
       </c>
       <c r="F18" t="n">
-        <v>0.3226</v>
+        <v>0.3287</v>
       </c>
       <c r="G18" t="n">
+        <v>0.3256</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.327</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.3295</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.3283</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.3289</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.3273</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.3278</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.3278</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.3248</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.3284</v>
+      </c>
+      <c r="Q18" t="n">
         <v>0.3247</v>
       </c>
-      <c r="H18" t="n">
-        <v>0.3258</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0.3231</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.3271</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.3231</v>
-      </c>
-      <c r="L18" t="n">
+      <c r="R18" t="n">
+        <v>0.3247</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.3246</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0.3248</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.3296</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0.3256</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0.3287</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0.3255</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0.3248</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0.3245</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0.329</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>0.3266</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0.3253</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0.326</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>0.3293</v>
+      </c>
+      <c r="AF18" t="n">
         <v>0.31</v>
       </c>
-      <c r="M18" t="n">
+      <c r="AG18" t="n">
         <v>0.335</v>
       </c>
     </row>
@@ -1073,39 +1973,99 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.3452</v>
+        <v>0.3496</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3456</v>
+        <v>0.3491</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3469</v>
+        <v>0.3496</v>
       </c>
       <c r="E19" t="n">
-        <v>0.3467</v>
+        <v>0.3496</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3453</v>
+        <v>0.3486</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3469</v>
+        <v>0.3496</v>
       </c>
       <c r="H19" t="n">
-        <v>0.347</v>
+        <v>0.3489</v>
       </c>
       <c r="I19" t="n">
-        <v>0.3458</v>
+        <v>0.3485</v>
       </c>
       <c r="J19" t="n">
-        <v>0.3485</v>
+        <v>0.3486</v>
       </c>
       <c r="K19" t="n">
-        <v>0.3458</v>
+        <v>0.3486</v>
       </c>
       <c r="L19" t="n">
+        <v>0.3486</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.3484</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.3487</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.3491</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.3486</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.3491</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.349</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.349</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.3493</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.3483</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.3494</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.348</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0.3495</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0.3491</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0.3491</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0.3481</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0.3492</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0.3492</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0.3493</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0.3484</v>
+      </c>
+      <c r="AF19" t="n">
         <v>0.325</v>
       </c>
-      <c r="M19" t="n">
+      <c r="AG19" t="n">
         <v>0.358</v>
       </c>
     </row>
@@ -1116,39 +2076,99 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.3263</v>
+        <v>0.3286</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3255</v>
+        <v>0.3383</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3256</v>
+        <v>0.3375</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3253</v>
+        <v>0.3374</v>
       </c>
       <c r="F20" t="n">
-        <v>0.3253</v>
+        <v>0.3382</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3258</v>
+        <v>0.3353</v>
       </c>
       <c r="H20" t="n">
-        <v>0.3257</v>
+        <v>0.3383</v>
       </c>
       <c r="I20" t="n">
-        <v>0.3254</v>
+        <v>0.3374</v>
       </c>
       <c r="J20" t="n">
-        <v>0.3258</v>
+        <v>0.3376</v>
       </c>
       <c r="K20" t="n">
-        <v>0.3254</v>
+        <v>0.3382</v>
       </c>
       <c r="L20" t="n">
+        <v>0.3382</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.3374</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.3383</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.3374</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.3382</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.3373</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.3382</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.3373</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.3382</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.3381</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.3373</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.3288</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0.3374</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0.3381</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0.3382</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0.3372</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0.3182</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0.3383</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0.3209</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0.3372</v>
+      </c>
+      <c r="AF20" t="n">
         <v>0.31</v>
       </c>
-      <c r="M20" t="n">
+      <c r="AG20" t="n">
         <v>0.335</v>
       </c>
     </row>
@@ -1159,39 +2179,99 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.3498</v>
+        <v>0.3496</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3491</v>
+        <v>0.3581</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3491</v>
+        <v>0.3575</v>
       </c>
       <c r="E21" t="n">
-        <v>0.349</v>
+        <v>0.3575</v>
       </c>
       <c r="F21" t="n">
-        <v>0.349</v>
+        <v>0.3581</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3493</v>
+        <v>0.3566</v>
       </c>
       <c r="H21" t="n">
-        <v>0.3492</v>
+        <v>0.3581</v>
       </c>
       <c r="I21" t="n">
-        <v>0.3491</v>
+        <v>0.3575</v>
       </c>
       <c r="J21" t="n">
-        <v>0.3492</v>
+        <v>0.3578</v>
       </c>
       <c r="K21" t="n">
-        <v>0.349</v>
+        <v>0.3581</v>
       </c>
       <c r="L21" t="n">
+        <v>0.358</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.3574</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.3581</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.3575</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.358</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.3574</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.358</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.3574</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.358</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.358</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.3573</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0.3532</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0.3574</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0.3579</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0.358</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0.3575</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0.3434</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0.358</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0.3566</v>
+      </c>
+      <c r="AF21" t="n">
         <v>0.325</v>
       </c>
-      <c r="M21" t="n">
+      <c r="AG21" t="n">
         <v>0.358</v>
       </c>
     </row>
@@ -1202,39 +2282,99 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.3214</v>
+        <v>0.3188</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3216</v>
+        <v>0.3187</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3219</v>
+        <v>0.3186</v>
       </c>
       <c r="E22" t="n">
-        <v>0.3221</v>
+        <v>0.3188</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3221</v>
+        <v>0.3189</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3221</v>
+        <v>0.3187</v>
       </c>
       <c r="H22" t="n">
-        <v>0.3221</v>
+        <v>0.3184</v>
       </c>
       <c r="I22" t="n">
-        <v>0.3222</v>
+        <v>0.3186</v>
       </c>
       <c r="J22" t="n">
-        <v>0.3222</v>
+        <v>0.3187</v>
       </c>
       <c r="K22" t="n">
-        <v>0.3222</v>
+        <v>0.3186</v>
       </c>
       <c r="L22" t="n">
+        <v>0.3185</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.3186</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.3184</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.3186</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.3185</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.3186</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.3186</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.3185</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.3185</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.3185</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.3186</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.3185</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0.3184</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0.3186</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0.3186</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0.3187</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0.3186</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0.3182</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0.3185</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>0.3186</v>
+      </c>
+      <c r="AF22" t="n">
         <v>0.31</v>
       </c>
-      <c r="M22" t="n">
+      <c r="AG22" t="n">
         <v>0.335</v>
       </c>
     </row>
@@ -1245,39 +2385,99 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.3462</v>
+        <v>0.3457</v>
       </c>
       <c r="C23" t="n">
-        <v>0.3467</v>
+        <v>0.3457</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3469</v>
+        <v>0.3455</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3471</v>
+        <v>0.3457</v>
       </c>
       <c r="F23" t="n">
-        <v>0.347</v>
+        <v>0.3458</v>
       </c>
       <c r="G23" t="n">
-        <v>0.3471</v>
+        <v>0.3456</v>
       </c>
       <c r="H23" t="n">
-        <v>0.3471</v>
+        <v>0.3454</v>
       </c>
       <c r="I23" t="n">
-        <v>0.3471</v>
+        <v>0.3457</v>
       </c>
       <c r="J23" t="n">
-        <v>0.3471</v>
+        <v>0.3456</v>
       </c>
       <c r="K23" t="n">
-        <v>0.3471</v>
+        <v>0.3455</v>
       </c>
       <c r="L23" t="n">
+        <v>0.3456</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.3455</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.3454</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.3455</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.3456</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.3457</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0.3455</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0.3456</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0.3456</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0.3456</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0.3455</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0.3456</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0.3454</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0.3455</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0.3455</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0.3457</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>0.3455</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0.3452</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>0.3456</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>0.3455</v>
+      </c>
+      <c r="AF23" t="n">
         <v>0.325</v>
       </c>
-      <c r="M23" t="n">
+      <c r="AG23" t="n">
         <v>0.358</v>
       </c>
     </row>
@@ -1288,39 +2488,99 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.3245</v>
+        <v>0.3092</v>
       </c>
       <c r="C24" t="n">
-        <v>0.3228</v>
+        <v>0.3083</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3237</v>
+        <v>0.3074</v>
       </c>
       <c r="E24" t="n">
-        <v>0.3247</v>
+        <v>0.309</v>
       </c>
       <c r="F24" t="n">
-        <v>0.3229</v>
+        <v>0.3093</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3213</v>
+        <v>0.3084</v>
       </c>
       <c r="H24" t="n">
-        <v>0.3213</v>
+        <v>0.3082</v>
       </c>
       <c r="I24" t="n">
-        <v>0.3213</v>
+        <v>0.3091</v>
       </c>
       <c r="J24" t="n">
-        <v>0.3219</v>
+        <v>0.309</v>
       </c>
       <c r="K24" t="n">
-        <v>0.321</v>
+        <v>0.309</v>
       </c>
       <c r="L24" t="n">
+        <v>0.3084</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.309</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.3091</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.3091</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.3074</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.3089</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.3076</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.3089</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0.3082</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.3091</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0.3084</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0.3084</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0.3089</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0.3092</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0.3091</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>0.3083</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>0.3081</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0.3085</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>0.3084</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>0.3088</v>
+      </c>
+      <c r="AF24" t="n">
         <v>0.31</v>
       </c>
-      <c r="M24" t="n">
+      <c r="AG24" t="n">
         <v>0.335</v>
       </c>
     </row>
@@ -1331,39 +2591,99 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.3479</v>
+        <v>0.3371</v>
       </c>
       <c r="C25" t="n">
-        <v>0.3465</v>
+        <v>0.3368</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3476</v>
+        <v>0.3361</v>
       </c>
       <c r="E25" t="n">
-        <v>0.3476</v>
+        <v>0.3373</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3466</v>
+        <v>0.3372</v>
       </c>
       <c r="G25" t="n">
-        <v>0.346</v>
+        <v>0.3366</v>
       </c>
       <c r="H25" t="n">
-        <v>0.346</v>
+        <v>0.3367</v>
       </c>
       <c r="I25" t="n">
-        <v>0.346</v>
+        <v>0.3373</v>
       </c>
       <c r="J25" t="n">
-        <v>0.3463</v>
+        <v>0.3373</v>
       </c>
       <c r="K25" t="n">
-        <v>0.3457</v>
+        <v>0.3373</v>
       </c>
       <c r="L25" t="n">
+        <v>0.3366</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.3372</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.3374</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.337</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.3361</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.3369</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.3363</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.3372</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.3365</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.337</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0.3365</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0.3365</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0.3369</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0.3371</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0.3371</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0.3365</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0.3367</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0.3366</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0.3365</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0.3371</v>
+      </c>
+      <c r="AF25" t="n">
         <v>0.325</v>
       </c>
-      <c r="M25" t="n">
+      <c r="AG25" t="n">
         <v>0.358</v>
       </c>
     </row>
@@ -1374,39 +2694,99 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.332</v>
+        <v>0.3377</v>
       </c>
       <c r="C26" t="n">
-        <v>0.3317</v>
+        <v>0.3288</v>
       </c>
       <c r="D26" t="n">
-        <v>0.3327</v>
+        <v>0.3343</v>
       </c>
       <c r="E26" t="n">
-        <v>0.3315</v>
+        <v>0.3319</v>
       </c>
       <c r="F26" t="n">
+        <v>0.3345</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.3381</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.3311</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.3379</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.3374</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.336</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.3381</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.338</v>
+      </c>
+      <c r="N26" t="n">
         <v>0.3318</v>
       </c>
-      <c r="G26" t="n">
-        <v>0.3318</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.3318</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0.3318</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.3318</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.3318</v>
-      </c>
-      <c r="L26" t="n">
+      <c r="O26" t="n">
+        <v>0.3377</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.3346</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.3376</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.3371</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.328</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.3281</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.3373</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0.3335</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0.3373</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0.3374</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0.3367</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0.3377</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0.3376</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0.3319</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0.3378</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0.3377</v>
+      </c>
+      <c r="AF26" t="n">
         <v>0.31</v>
       </c>
-      <c r="M26" t="n">
+      <c r="AG26" t="n">
         <v>0.335</v>
       </c>
     </row>
@@ -1417,39 +2797,99 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.3538</v>
+        <v>0.3576</v>
       </c>
       <c r="C27" t="n">
+        <v>0.3474</v>
+      </c>
+      <c r="D27" t="n">
         <v>0.3537</v>
       </c>
-      <c r="D27" t="n">
-        <v>0.3543</v>
-      </c>
       <c r="E27" t="n">
+        <v>0.3509</v>
+      </c>
+      <c r="F27" t="n">
         <v>0.3539</v>
       </c>
-      <c r="F27" t="n">
-        <v>0.3538</v>
-      </c>
       <c r="G27" t="n">
-        <v>0.3538</v>
+        <v>0.3581</v>
       </c>
       <c r="H27" t="n">
-        <v>0.3538</v>
+        <v>0.35</v>
       </c>
       <c r="I27" t="n">
-        <v>0.3538</v>
+        <v>0.3578</v>
       </c>
       <c r="J27" t="n">
-        <v>0.3538</v>
+        <v>0.3573</v>
       </c>
       <c r="K27" t="n">
-        <v>0.3538</v>
+        <v>0.3556</v>
       </c>
       <c r="L27" t="n">
+        <v>0.358</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.3579</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.3513</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.3578</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.3545</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.3574</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.3572</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.3471</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0.3469</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.3575</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0.3528</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0.3575</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0.3575</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0.3571</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0.3536</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0.3579</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0.3577</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0.3513</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0.358</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0.3579</v>
+      </c>
+      <c r="AF27" t="n">
         <v>0.325</v>
       </c>
-      <c r="M27" t="n">
+      <c r="AG27" t="n">
         <v>0.358</v>
       </c>
     </row>

--- a/RyR_Generator/2_Results/Target.xlsx
+++ b/RyR_Generator/2_Results/Target.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luciano.galan\Desktop\Code\1_Repositories\Python_Eiit_RyR\RyR_Generator\2_Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7693901D-FE29-436A-915A-24F3953D6B53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85FA57B6-FDD7-41A6-A6B0-8263B42DC888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="104">
   <si>
     <t>Enter_Visteon_Manufacturing_Session_N2</t>
   </si>
@@ -107,6 +107,231 @@
   </si>
   <si>
     <t>5.25</t>
+  </si>
+  <si>
+    <t>AI_BATTERY_UC_N2</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>2.6</t>
+  </si>
+  <si>
+    <t>AI_SW_BATT_UC_N2</t>
+  </si>
+  <si>
+    <t>P_BATTERY_CORE_N2</t>
+  </si>
+  <si>
+    <t>12.825</t>
+  </si>
+  <si>
+    <t>14.165</t>
+  </si>
+  <si>
+    <t>P_SW_BATT_N2</t>
+  </si>
+  <si>
+    <t>14.175</t>
+  </si>
+  <si>
+    <t>P_BATTERY_N2</t>
+  </si>
+  <si>
+    <t>13.4</t>
+  </si>
+  <si>
+    <t>13.6</t>
+  </si>
+  <si>
+    <t>Write_MEC_FE_N2</t>
+  </si>
+  <si>
+    <t>TDE_Block_Read_N2</t>
+  </si>
+  <si>
+    <t>0B</t>
+  </si>
+  <si>
+    <t>R_AI_SW_BATT_UC_N2</t>
+  </si>
+  <si>
+    <t>1790</t>
+  </si>
+  <si>
+    <t>1919</t>
+  </si>
+  <si>
+    <t>R_AI_BATTERY_UC_N2</t>
+  </si>
+  <si>
+    <t>1852</t>
+  </si>
+  <si>
+    <t>1957</t>
+  </si>
+  <si>
+    <t>R_AI_1V0_MAIN_N2</t>
+  </si>
+  <si>
+    <t>1135</t>
+  </si>
+  <si>
+    <t>1346</t>
+  </si>
+  <si>
+    <t>R_AI_1V8_N2</t>
+  </si>
+  <si>
+    <t>2098</t>
+  </si>
+  <si>
+    <t>2369</t>
+  </si>
+  <si>
+    <t>R_AI_ADC_TEST_N2</t>
+  </si>
+  <si>
+    <t>2917</t>
+  </si>
+  <si>
+    <t>3261</t>
+  </si>
+  <si>
+    <t>R_AI_1V1_N2</t>
+  </si>
+  <si>
+    <t>1255</t>
+  </si>
+  <si>
+    <t>1474</t>
+  </si>
+  <si>
+    <t>R_AI_MAIN_PWB_TEMP_N2</t>
+  </si>
+  <si>
+    <t>1349</t>
+  </si>
+  <si>
+    <t>4095</t>
+  </si>
+  <si>
+    <t>R_AI_3V3_SW_N2</t>
+  </si>
+  <si>
+    <t>1791</t>
+  </si>
+  <si>
+    <t>2313</t>
+  </si>
+  <si>
+    <t>R_AI_30V0_BL_PWR_UC_N2</t>
+  </si>
+  <si>
+    <t>957</t>
+  </si>
+  <si>
+    <t>2750</t>
+  </si>
+  <si>
+    <t>R_AI_3V3_TFT_N2</t>
+  </si>
+  <si>
+    <t>1774</t>
+  </si>
+  <si>
+    <t>R_AI_TFT_LED_TEMP_N2</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>VBATT_DMM_9v_N2</t>
+  </si>
+  <si>
+    <t>8.75</t>
+  </si>
+  <si>
+    <t>9.25</t>
+  </si>
+  <si>
+    <t>VBATT_ADC_9v_N2</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>VBATT_DMM_16v_N2</t>
+  </si>
+  <si>
+    <t>15.75</t>
+  </si>
+  <si>
+    <t>16.25</t>
+  </si>
+  <si>
+    <t>VBATT_ADC_16v_N2</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>Vslope_calc_N2</t>
+  </si>
+  <si>
+    <t>7965</t>
+  </si>
+  <si>
+    <t>9111</t>
+  </si>
+  <si>
+    <t>Voffset_calc_N2</t>
+  </si>
+  <si>
+    <t>-300</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>W_Batt_N2</t>
+  </si>
+  <si>
+    <t>6E</t>
+  </si>
+  <si>
+    <t>Time_Current_N2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>READ_DI_RUN_CRANK_CONN_OFF_N2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>READ_DI_RUN_CRANK_CONN_ON_N2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>ECU_MEC_N2</t>
+  </si>
+  <si>
+    <t>0462F1A0FE</t>
   </si>
 </sst>
 </file>
@@ -446,13 +671,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:AG17"/>
+  <dimension ref="A4:AG49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.44140625" customWidth="1"/>
+    <col min="1" max="1" width="40.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:33" x14ac:dyDescent="0.3">
@@ -1867,6 +2092,3238 @@
       </c>
       <c r="AG17" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18">
+        <v>2.4530775600000001</v>
+      </c>
+      <c r="C18">
+        <v>2.4478078600000002</v>
+      </c>
+      <c r="D18">
+        <v>2.45295861</v>
+      </c>
+      <c r="E18">
+        <v>2.4475713899999998</v>
+      </c>
+      <c r="F18">
+        <v>2.4475706700000002</v>
+      </c>
+      <c r="G18">
+        <v>2.4475710300000002</v>
+      </c>
+      <c r="H18">
+        <v>2.4476892700000001</v>
+      </c>
+      <c r="I18">
+        <v>2.4471564899999998</v>
+      </c>
+      <c r="J18">
+        <v>2.4479852100000001</v>
+      </c>
+      <c r="K18">
+        <v>2.4464456499999998</v>
+      </c>
+      <c r="L18">
+        <v>2.4477483800000002</v>
+      </c>
+      <c r="M18">
+        <v>2.4888386499999999</v>
+      </c>
+      <c r="N18">
+        <v>2.4472750900000002</v>
+      </c>
+      <c r="O18">
+        <v>2.4471564899999998</v>
+      </c>
+      <c r="P18">
+        <v>2.4471568499999998</v>
+      </c>
+      <c r="Q18">
+        <v>2.4530775600000001</v>
+      </c>
+      <c r="R18">
+        <v>2.4646226800000002</v>
+      </c>
+      <c r="S18">
+        <v>2.4469787799999998</v>
+      </c>
+      <c r="T18">
+        <v>2.45384717</v>
+      </c>
+      <c r="U18">
+        <v>2.4470379000000002</v>
+      </c>
+      <c r="V18">
+        <v>2.4474524400000002</v>
+      </c>
+      <c r="W18">
+        <v>2.4482811600000001</v>
+      </c>
+      <c r="X18">
+        <v>2.4473933200000002</v>
+      </c>
+      <c r="Y18">
+        <v>2.4475710300000002</v>
+      </c>
+      <c r="Z18">
+        <v>2.4472156100000002</v>
+      </c>
+      <c r="AA18">
+        <v>2.4600638199999998</v>
+      </c>
+      <c r="AB18">
+        <v>2.44905076</v>
+      </c>
+      <c r="AC18">
+        <v>2.4481632800000002</v>
+      </c>
+      <c r="AD18">
+        <v>2.44899164</v>
+      </c>
+      <c r="AE18">
+        <v>2.4473933200000002</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19">
+        <v>2.3771136899999998</v>
+      </c>
+      <c r="C19">
+        <v>2.3771738899999999</v>
+      </c>
+      <c r="D19">
+        <v>2.3780613700000002</v>
+      </c>
+      <c r="E19">
+        <v>2.3766403999999999</v>
+      </c>
+      <c r="F19">
+        <v>2.3777063100000002</v>
+      </c>
+      <c r="G19">
+        <v>2.3770549399999998</v>
+      </c>
+      <c r="H19">
+        <v>2.3813769699999998</v>
+      </c>
+      <c r="I19">
+        <v>2.3776468300000002</v>
+      </c>
+      <c r="J19">
+        <v>2.3774099999999998</v>
+      </c>
+      <c r="K19">
+        <v>2.3771140499999999</v>
+      </c>
+      <c r="L19">
+        <v>2.3774103599999998</v>
+      </c>
+      <c r="M19">
+        <v>2.3862915999999998</v>
+      </c>
+      <c r="N19">
+        <v>2.38043037</v>
+      </c>
+      <c r="O19">
+        <v>2.3778840200000002</v>
+      </c>
+      <c r="P19">
+        <v>2.37971917</v>
+      </c>
+      <c r="Q19">
+        <v>2.3778840200000002</v>
+      </c>
+      <c r="R19">
+        <v>2.3778248999999998</v>
+      </c>
+      <c r="S19">
+        <v>2.4260787700000002</v>
+      </c>
+      <c r="T19">
+        <v>2.3780617300000002</v>
+      </c>
+      <c r="U19">
+        <v>2.3782394400000002</v>
+      </c>
+      <c r="V19">
+        <v>2.3818513399999999</v>
+      </c>
+      <c r="W19">
+        <v>2.3781796000000002</v>
+      </c>
+      <c r="X19">
+        <v>2.3783573100000002</v>
+      </c>
+      <c r="Y19">
+        <v>2.3810813799999999</v>
+      </c>
+      <c r="Z19">
+        <v>2.3777650600000002</v>
+      </c>
+      <c r="AA19">
+        <v>2.3775285899999998</v>
+      </c>
+      <c r="AB19">
+        <v>2.3774103599999998</v>
+      </c>
+      <c r="AC19">
+        <v>2.37610762</v>
+      </c>
+      <c r="AD19">
+        <v>2.3774103599999998</v>
+      </c>
+      <c r="AE19">
+        <v>2.3794232200000001</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20">
+        <v>13.016448799999999</v>
+      </c>
+      <c r="C20">
+        <v>13.0210724</v>
+      </c>
+      <c r="D20">
+        <v>13.023442299999999</v>
+      </c>
+      <c r="E20">
+        <v>13.0279468</v>
+      </c>
+      <c r="F20">
+        <v>13.2142769</v>
+      </c>
+      <c r="G20">
+        <v>13.0139599</v>
+      </c>
+      <c r="H20">
+        <v>13.025102800000001</v>
+      </c>
+      <c r="I20">
+        <v>13.019767699999999</v>
+      </c>
+      <c r="J20">
+        <v>13.022138999999999</v>
+      </c>
+      <c r="K20">
+        <v>13.026287099999999</v>
+      </c>
+      <c r="L20">
+        <v>13.0198868</v>
+      </c>
+      <c r="M20">
+        <v>13.018464399999999</v>
+      </c>
+      <c r="N20">
+        <v>13.0264054</v>
+      </c>
+      <c r="O20">
+        <v>13.022138999999999</v>
+      </c>
+      <c r="P20">
+        <v>13.022020700000001</v>
+      </c>
+      <c r="Q20">
+        <v>13.024747100000001</v>
+      </c>
+      <c r="R20">
+        <v>13.0209534</v>
+      </c>
+      <c r="S20">
+        <v>13.014197299999999</v>
+      </c>
+      <c r="T20">
+        <v>13.022257400000001</v>
+      </c>
+      <c r="U20">
+        <v>13.0139599</v>
+      </c>
+      <c r="V20">
+        <v>13.022731500000001</v>
+      </c>
+      <c r="W20">
+        <v>13.0229675</v>
+      </c>
+      <c r="X20">
+        <v>13.0198868</v>
+      </c>
+      <c r="Y20">
+        <v>13.0195317</v>
+      </c>
+      <c r="Z20">
+        <v>13.205506</v>
+      </c>
+      <c r="AA20">
+        <v>13.014434</v>
+      </c>
+      <c r="AB20">
+        <v>13.0950355</v>
+      </c>
+      <c r="AC20">
+        <v>13.029724999999999</v>
+      </c>
+      <c r="AD20">
+        <v>13.015738000000001</v>
+      </c>
+      <c r="AE20">
+        <v>13.0168046</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21">
+        <v>13.1339135</v>
+      </c>
+      <c r="C21">
+        <v>13.1313055</v>
+      </c>
+      <c r="D21">
+        <v>13.1526417</v>
+      </c>
+      <c r="E21">
+        <v>13.131424600000001</v>
+      </c>
+      <c r="F21">
+        <v>13.138299699999999</v>
+      </c>
+      <c r="G21">
+        <v>13.143277599999999</v>
+      </c>
+      <c r="H21">
+        <v>13.136402500000001</v>
+      </c>
+      <c r="I21">
+        <v>13.134625099999999</v>
+      </c>
+      <c r="J21">
+        <v>13.1314238</v>
+      </c>
+      <c r="K21">
+        <v>13.147308000000001</v>
+      </c>
+      <c r="L21">
+        <v>13.131780300000001</v>
+      </c>
+      <c r="M21">
+        <v>13.1496779</v>
+      </c>
+      <c r="N21">
+        <v>13.1336768</v>
+      </c>
+      <c r="O21">
+        <v>13.143159300000001</v>
+      </c>
+      <c r="P21">
+        <v>13.144699299999999</v>
+      </c>
+      <c r="Q21">
+        <v>13.1365208</v>
+      </c>
+      <c r="R21">
+        <v>13.1372324</v>
+      </c>
+      <c r="S21">
+        <v>13.1560782</v>
+      </c>
+      <c r="T21">
+        <v>13.139128899999999</v>
+      </c>
+      <c r="U21">
+        <v>13.134506</v>
+      </c>
+      <c r="V21">
+        <v>13.134031200000001</v>
+      </c>
+      <c r="W21">
+        <v>13.1332027</v>
+      </c>
+      <c r="X21">
+        <v>13.1439892</v>
+      </c>
+      <c r="Y21">
+        <v>13.1464774</v>
+      </c>
+      <c r="Z21">
+        <v>13.132609499999999</v>
+      </c>
+      <c r="AA21">
+        <v>13.1334394</v>
+      </c>
+      <c r="AB21">
+        <v>13.1296464</v>
+      </c>
+      <c r="AC21">
+        <v>13.139840400000001</v>
+      </c>
+      <c r="AD21">
+        <v>13.140552</v>
+      </c>
+      <c r="AE21">
+        <v>13.1353352</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22">
+        <v>13.4992258</v>
+      </c>
+      <c r="C22">
+        <v>13.5036112</v>
+      </c>
+      <c r="D22">
+        <v>13.4592812</v>
+      </c>
+      <c r="E22">
+        <v>13.5056268</v>
+      </c>
+      <c r="F22">
+        <v>13.503730300000001</v>
+      </c>
+      <c r="G22">
+        <v>13.5004122</v>
+      </c>
+      <c r="H22">
+        <v>13.502663</v>
+      </c>
+      <c r="I22">
+        <v>13.503137799999999</v>
+      </c>
+      <c r="J22">
+        <v>13.5061009</v>
+      </c>
+      <c r="K22">
+        <v>13.503730300000001</v>
+      </c>
+      <c r="L22">
+        <v>13.5018338</v>
+      </c>
+      <c r="M22">
+        <v>13.502189599999999</v>
+      </c>
+      <c r="N22">
+        <v>13.503256199999999</v>
+      </c>
+      <c r="O22">
+        <v>13.5216286</v>
+      </c>
+      <c r="P22">
+        <v>13.504322800000001</v>
+      </c>
+      <c r="Q22">
+        <v>13.5017148</v>
+      </c>
+      <c r="R22">
+        <v>13.5110796</v>
+      </c>
+      <c r="S22">
+        <v>13.500884900000001</v>
+      </c>
+      <c r="T22">
+        <v>13.500766499999999</v>
+      </c>
+      <c r="U22">
+        <v>13.5027828</v>
+      </c>
+      <c r="V22">
+        <v>13.526962299999999</v>
+      </c>
+      <c r="W22">
+        <v>13.5025447</v>
+      </c>
+      <c r="X22">
+        <v>13.502782099999999</v>
+      </c>
+      <c r="Y22">
+        <v>13.5015964</v>
+      </c>
+      <c r="Z22">
+        <v>13.5021889</v>
+      </c>
+      <c r="AA22">
+        <v>13.500766499999999</v>
+      </c>
+      <c r="AB22">
+        <v>13.502307999999999</v>
+      </c>
+      <c r="AC22">
+        <v>13.504204400000001</v>
+      </c>
+      <c r="AD22">
+        <v>13.5004107</v>
+      </c>
+      <c r="AE22">
+        <v>13.5050343</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25">
+        <v>1937</v>
+      </c>
+      <c r="C25">
+        <v>1932</v>
+      </c>
+      <c r="D25">
+        <v>1923</v>
+      </c>
+      <c r="E25">
+        <v>1928</v>
+      </c>
+      <c r="F25">
+        <v>1932</v>
+      </c>
+      <c r="G25">
+        <v>1942</v>
+      </c>
+      <c r="H25">
+        <v>1935</v>
+      </c>
+      <c r="I25">
+        <v>1926</v>
+      </c>
+      <c r="J25">
+        <v>1933</v>
+      </c>
+      <c r="K25">
+        <v>1935</v>
+      </c>
+      <c r="L25">
+        <v>1930</v>
+      </c>
+      <c r="M25">
+        <v>1935</v>
+      </c>
+      <c r="N25">
+        <v>1931</v>
+      </c>
+      <c r="O25">
+        <v>1933</v>
+      </c>
+      <c r="P25">
+        <v>1932</v>
+      </c>
+      <c r="Q25">
+        <v>1923</v>
+      </c>
+      <c r="R25">
+        <v>1931</v>
+      </c>
+      <c r="S25">
+        <v>1931</v>
+      </c>
+      <c r="T25">
+        <v>1928</v>
+      </c>
+      <c r="U25">
+        <v>1932</v>
+      </c>
+      <c r="V25">
+        <v>1927</v>
+      </c>
+      <c r="W25">
+        <v>1948</v>
+      </c>
+      <c r="X25">
+        <v>1929</v>
+      </c>
+      <c r="Y25">
+        <v>1936</v>
+      </c>
+      <c r="Z25">
+        <v>1932</v>
+      </c>
+      <c r="AA25">
+        <v>1930</v>
+      </c>
+      <c r="AB25">
+        <v>1930</v>
+      </c>
+      <c r="AC25">
+        <v>1935</v>
+      </c>
+      <c r="AD25">
+        <v>1928</v>
+      </c>
+      <c r="AE25">
+        <v>1928</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26">
+        <v>1987</v>
+      </c>
+      <c r="C26">
+        <v>1997</v>
+      </c>
+      <c r="D26">
+        <v>1986</v>
+      </c>
+      <c r="E26">
+        <v>1993</v>
+      </c>
+      <c r="F26">
+        <v>1987</v>
+      </c>
+      <c r="G26">
+        <v>1987</v>
+      </c>
+      <c r="H26">
+        <v>1985</v>
+      </c>
+      <c r="I26">
+        <v>1991</v>
+      </c>
+      <c r="J26">
+        <v>1989</v>
+      </c>
+      <c r="K26">
+        <v>1980</v>
+      </c>
+      <c r="L26">
+        <v>1993</v>
+      </c>
+      <c r="M26">
+        <v>1987</v>
+      </c>
+      <c r="N26">
+        <v>1995</v>
+      </c>
+      <c r="O26">
+        <v>1985</v>
+      </c>
+      <c r="P26">
+        <v>1993</v>
+      </c>
+      <c r="Q26">
+        <v>1982</v>
+      </c>
+      <c r="R26">
+        <v>1985</v>
+      </c>
+      <c r="S26">
+        <v>1987</v>
+      </c>
+      <c r="T26">
+        <v>1990</v>
+      </c>
+      <c r="U26">
+        <v>1995</v>
+      </c>
+      <c r="V26">
+        <v>1992</v>
+      </c>
+      <c r="W26">
+        <v>2002</v>
+      </c>
+      <c r="X26">
+        <v>1990</v>
+      </c>
+      <c r="Y26">
+        <v>1978</v>
+      </c>
+      <c r="Z26">
+        <v>1992</v>
+      </c>
+      <c r="AA26">
+        <v>1993</v>
+      </c>
+      <c r="AB26">
+        <v>1994</v>
+      </c>
+      <c r="AC26">
+        <v>1995</v>
+      </c>
+      <c r="AD26">
+        <v>1989</v>
+      </c>
+      <c r="AE26">
+        <v>1991</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27">
+        <v>832</v>
+      </c>
+      <c r="C27">
+        <v>828</v>
+      </c>
+      <c r="D27">
+        <v>832</v>
+      </c>
+      <c r="E27">
+        <v>833</v>
+      </c>
+      <c r="F27">
+        <v>829</v>
+      </c>
+      <c r="G27">
+        <v>831</v>
+      </c>
+      <c r="H27">
+        <v>831</v>
+      </c>
+      <c r="I27">
+        <v>828</v>
+      </c>
+      <c r="J27">
+        <v>828</v>
+      </c>
+      <c r="K27">
+        <v>830</v>
+      </c>
+      <c r="L27">
+        <v>826</v>
+      </c>
+      <c r="M27">
+        <v>832</v>
+      </c>
+      <c r="N27">
+        <v>830</v>
+      </c>
+      <c r="O27">
+        <v>830</v>
+      </c>
+      <c r="P27">
+        <v>830</v>
+      </c>
+      <c r="Q27">
+        <v>832</v>
+      </c>
+      <c r="R27">
+        <v>829</v>
+      </c>
+      <c r="S27">
+        <v>832</v>
+      </c>
+      <c r="T27">
+        <v>828</v>
+      </c>
+      <c r="U27">
+        <v>828</v>
+      </c>
+      <c r="V27">
+        <v>826</v>
+      </c>
+      <c r="W27">
+        <v>832</v>
+      </c>
+      <c r="X27">
+        <v>829</v>
+      </c>
+      <c r="Y27">
+        <v>830</v>
+      </c>
+      <c r="Z27">
+        <v>829</v>
+      </c>
+      <c r="AA27">
+        <v>829</v>
+      </c>
+      <c r="AB27">
+        <v>828</v>
+      </c>
+      <c r="AC27">
+        <v>826</v>
+      </c>
+      <c r="AD27">
+        <v>829</v>
+      </c>
+      <c r="AE27">
+        <v>828</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28">
+        <v>1463</v>
+      </c>
+      <c r="C28">
+        <v>1458</v>
+      </c>
+      <c r="D28">
+        <v>1465</v>
+      </c>
+      <c r="E28">
+        <v>1458</v>
+      </c>
+      <c r="F28">
+        <v>1458</v>
+      </c>
+      <c r="G28">
+        <v>1462</v>
+      </c>
+      <c r="H28">
+        <v>1465</v>
+      </c>
+      <c r="I28">
+        <v>1457</v>
+      </c>
+      <c r="J28">
+        <v>1458</v>
+      </c>
+      <c r="K28">
+        <v>1463</v>
+      </c>
+      <c r="L28">
+        <v>1456</v>
+      </c>
+      <c r="M28">
+        <v>1463</v>
+      </c>
+      <c r="N28">
+        <v>1460</v>
+      </c>
+      <c r="O28">
+        <v>1462</v>
+      </c>
+      <c r="P28">
+        <v>1461</v>
+      </c>
+      <c r="Q28">
+        <v>1465</v>
+      </c>
+      <c r="R28">
+        <v>1462</v>
+      </c>
+      <c r="S28">
+        <v>1464</v>
+      </c>
+      <c r="T28">
+        <v>1463</v>
+      </c>
+      <c r="U28">
+        <v>1457</v>
+      </c>
+      <c r="V28">
+        <v>1454</v>
+      </c>
+      <c r="W28">
+        <v>1464</v>
+      </c>
+      <c r="X28">
+        <v>1460</v>
+      </c>
+      <c r="Y28">
+        <v>1460</v>
+      </c>
+      <c r="Z28">
+        <v>1458</v>
+      </c>
+      <c r="AA28">
+        <v>1460</v>
+      </c>
+      <c r="AB28">
+        <v>1461</v>
+      </c>
+      <c r="AC28">
+        <v>1455</v>
+      </c>
+      <c r="AD28">
+        <v>1461</v>
+      </c>
+      <c r="AE28">
+        <v>1459</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29">
+        <v>2048</v>
+      </c>
+      <c r="C29">
+        <v>2042</v>
+      </c>
+      <c r="D29">
+        <v>2038</v>
+      </c>
+      <c r="E29">
+        <v>2047</v>
+      </c>
+      <c r="F29">
+        <v>2047</v>
+      </c>
+      <c r="G29">
+        <v>2050</v>
+      </c>
+      <c r="H29">
+        <v>2043</v>
+      </c>
+      <c r="I29">
+        <v>2049</v>
+      </c>
+      <c r="J29">
+        <v>2042</v>
+      </c>
+      <c r="K29">
+        <v>2042</v>
+      </c>
+      <c r="L29">
+        <v>2042</v>
+      </c>
+      <c r="M29">
+        <v>2048</v>
+      </c>
+      <c r="N29">
+        <v>2045</v>
+      </c>
+      <c r="O29">
+        <v>2036</v>
+      </c>
+      <c r="P29">
+        <v>2047</v>
+      </c>
+      <c r="Q29">
+        <v>2038</v>
+      </c>
+      <c r="R29">
+        <v>2047</v>
+      </c>
+      <c r="S29">
+        <v>2042</v>
+      </c>
+      <c r="T29">
+        <v>2042</v>
+      </c>
+      <c r="U29">
+        <v>2045</v>
+      </c>
+      <c r="V29">
+        <v>2043</v>
+      </c>
+      <c r="W29">
+        <v>2036</v>
+      </c>
+      <c r="X29">
+        <v>2049</v>
+      </c>
+      <c r="Y29">
+        <v>2049</v>
+      </c>
+      <c r="Z29">
+        <v>2043</v>
+      </c>
+      <c r="AA29">
+        <v>2038</v>
+      </c>
+      <c r="AB29">
+        <v>2037</v>
+      </c>
+      <c r="AC29">
+        <v>2047</v>
+      </c>
+      <c r="AD29">
+        <v>2043</v>
+      </c>
+      <c r="AE29">
+        <v>2048</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30">
+        <v>905</v>
+      </c>
+      <c r="C30">
+        <v>898</v>
+      </c>
+      <c r="D30">
+        <v>907</v>
+      </c>
+      <c r="E30">
+        <v>905</v>
+      </c>
+      <c r="F30">
+        <v>901</v>
+      </c>
+      <c r="G30">
+        <v>906</v>
+      </c>
+      <c r="H30">
+        <v>898</v>
+      </c>
+      <c r="I30">
+        <v>906</v>
+      </c>
+      <c r="J30">
+        <v>901</v>
+      </c>
+      <c r="K30">
+        <v>901</v>
+      </c>
+      <c r="L30">
+        <v>898</v>
+      </c>
+      <c r="M30">
+        <v>902</v>
+      </c>
+      <c r="N30">
+        <v>901</v>
+      </c>
+      <c r="O30">
+        <v>905</v>
+      </c>
+      <c r="P30">
+        <v>901</v>
+      </c>
+      <c r="Q30">
+        <v>907</v>
+      </c>
+      <c r="R30">
+        <v>901</v>
+      </c>
+      <c r="S30">
+        <v>906</v>
+      </c>
+      <c r="T30">
+        <v>900</v>
+      </c>
+      <c r="U30">
+        <v>901</v>
+      </c>
+      <c r="V30">
+        <v>899</v>
+      </c>
+      <c r="W30">
+        <v>907</v>
+      </c>
+      <c r="X30">
+        <v>899</v>
+      </c>
+      <c r="Y30">
+        <v>904</v>
+      </c>
+      <c r="Z30">
+        <v>900</v>
+      </c>
+      <c r="AA30">
+        <v>903</v>
+      </c>
+      <c r="AB30">
+        <v>904</v>
+      </c>
+      <c r="AC30">
+        <v>903</v>
+      </c>
+      <c r="AD30">
+        <v>901</v>
+      </c>
+      <c r="AE30">
+        <v>905</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31">
+        <v>3618</v>
+      </c>
+      <c r="C31">
+        <v>3602</v>
+      </c>
+      <c r="D31">
+        <v>3586</v>
+      </c>
+      <c r="E31">
+        <v>3579</v>
+      </c>
+      <c r="F31">
+        <v>3585</v>
+      </c>
+      <c r="G31">
+        <v>3550</v>
+      </c>
+      <c r="H31">
+        <v>3564</v>
+      </c>
+      <c r="I31">
+        <v>3544</v>
+      </c>
+      <c r="J31">
+        <v>3555</v>
+      </c>
+      <c r="K31">
+        <v>3547</v>
+      </c>
+      <c r="L31">
+        <v>3529</v>
+      </c>
+      <c r="M31">
+        <v>3525</v>
+      </c>
+      <c r="N31">
+        <v>3534</v>
+      </c>
+      <c r="O31">
+        <v>3524</v>
+      </c>
+      <c r="P31">
+        <v>3537</v>
+      </c>
+      <c r="Q31">
+        <v>3523</v>
+      </c>
+      <c r="R31">
+        <v>3536</v>
+      </c>
+      <c r="S31">
+        <v>3517</v>
+      </c>
+      <c r="T31">
+        <v>3527</v>
+      </c>
+      <c r="U31">
+        <v>3527</v>
+      </c>
+      <c r="V31">
+        <v>3525</v>
+      </c>
+      <c r="W31">
+        <v>3514</v>
+      </c>
+      <c r="X31">
+        <v>3521</v>
+      </c>
+      <c r="Y31">
+        <v>3525</v>
+      </c>
+      <c r="Z31">
+        <v>3520</v>
+      </c>
+      <c r="AA31">
+        <v>3519</v>
+      </c>
+      <c r="AB31">
+        <v>3513</v>
+      </c>
+      <c r="AC31">
+        <v>3520</v>
+      </c>
+      <c r="AD31">
+        <v>3513</v>
+      </c>
+      <c r="AE31">
+        <v>3504</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+      <c r="AC32">
+        <v>0</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33">
+        <v>3346</v>
+      </c>
+      <c r="C33">
+        <v>3254</v>
+      </c>
+      <c r="D33">
+        <v>3221</v>
+      </c>
+      <c r="E33">
+        <v>3257</v>
+      </c>
+      <c r="F33">
+        <v>3256</v>
+      </c>
+      <c r="G33">
+        <v>3250</v>
+      </c>
+      <c r="H33">
+        <v>3299</v>
+      </c>
+      <c r="I33">
+        <v>3327</v>
+      </c>
+      <c r="J33">
+        <v>3303</v>
+      </c>
+      <c r="K33">
+        <v>3281</v>
+      </c>
+      <c r="L33">
+        <v>3329</v>
+      </c>
+      <c r="M33">
+        <v>3341</v>
+      </c>
+      <c r="N33">
+        <v>3206</v>
+      </c>
+      <c r="O33">
+        <v>3289</v>
+      </c>
+      <c r="P33">
+        <v>3331</v>
+      </c>
+      <c r="Q33">
+        <v>3325</v>
+      </c>
+      <c r="R33">
+        <v>3255</v>
+      </c>
+      <c r="S33">
+        <v>3337</v>
+      </c>
+      <c r="T33">
+        <v>3272</v>
+      </c>
+      <c r="U33">
+        <v>3284</v>
+      </c>
+      <c r="V33">
+        <v>3262</v>
+      </c>
+      <c r="W33">
+        <v>3269</v>
+      </c>
+      <c r="X33">
+        <v>3339</v>
+      </c>
+      <c r="Y33">
+        <v>3289</v>
+      </c>
+      <c r="Z33">
+        <v>3331</v>
+      </c>
+      <c r="AA33">
+        <v>3333</v>
+      </c>
+      <c r="AB33">
+        <v>3298</v>
+      </c>
+      <c r="AC33">
+        <v>3331</v>
+      </c>
+      <c r="AD33">
+        <v>3283</v>
+      </c>
+      <c r="AE33">
+        <v>3260</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <v>0</v>
+      </c>
+      <c r="AC34">
+        <v>0</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35">
+        <v>4077</v>
+      </c>
+      <c r="C35">
+        <v>4077</v>
+      </c>
+      <c r="D35">
+        <v>4091</v>
+      </c>
+      <c r="E35">
+        <v>4090</v>
+      </c>
+      <c r="F35">
+        <v>4090</v>
+      </c>
+      <c r="G35">
+        <v>4089</v>
+      </c>
+      <c r="H35">
+        <v>4082</v>
+      </c>
+      <c r="I35">
+        <v>4083</v>
+      </c>
+      <c r="J35">
+        <v>4089</v>
+      </c>
+      <c r="K35">
+        <v>4089</v>
+      </c>
+      <c r="L35">
+        <v>4075</v>
+      </c>
+      <c r="M35">
+        <v>4088</v>
+      </c>
+      <c r="N35">
+        <v>4091</v>
+      </c>
+      <c r="O35">
+        <v>4090</v>
+      </c>
+      <c r="P35">
+        <v>4089</v>
+      </c>
+      <c r="Q35">
+        <v>4079</v>
+      </c>
+      <c r="R35">
+        <v>4089</v>
+      </c>
+      <c r="S35">
+        <v>4089</v>
+      </c>
+      <c r="T35">
+        <v>4089</v>
+      </c>
+      <c r="U35">
+        <v>4089</v>
+      </c>
+      <c r="V35">
+        <v>4090</v>
+      </c>
+      <c r="W35">
+        <v>4077</v>
+      </c>
+      <c r="X35">
+        <v>4090</v>
+      </c>
+      <c r="Y35">
+        <v>4090</v>
+      </c>
+      <c r="Z35">
+        <v>4078</v>
+      </c>
+      <c r="AA35">
+        <v>4085</v>
+      </c>
+      <c r="AB35">
+        <v>4082</v>
+      </c>
+      <c r="AC35">
+        <v>4088</v>
+      </c>
+      <c r="AD35">
+        <v>4089</v>
+      </c>
+      <c r="AE35">
+        <v>4079</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36">
+        <v>9.0443560600000001</v>
+      </c>
+      <c r="C36">
+        <v>9.0447118300000007</v>
+      </c>
+      <c r="D36">
+        <v>9.0610693999999992</v>
+      </c>
+      <c r="E36">
+        <v>9.0449492500000002</v>
+      </c>
+      <c r="F36">
+        <v>9.0415120400000006</v>
+      </c>
+      <c r="G36">
+        <v>9.0421045200000005</v>
+      </c>
+      <c r="H36">
+        <v>9.0421037900000005</v>
+      </c>
+      <c r="I36">
+        <v>9.0423412200000008</v>
+      </c>
+      <c r="J36">
+        <v>9.0412753400000003</v>
+      </c>
+      <c r="K36">
+        <v>9.0505210900000002</v>
+      </c>
+      <c r="L36">
+        <v>9.0568030299999993</v>
+      </c>
+      <c r="M36">
+        <v>9.0415120400000006</v>
+      </c>
+      <c r="N36">
+        <v>9.0460165700000008</v>
+      </c>
+      <c r="O36">
+        <v>9.0450675999999994</v>
+      </c>
+      <c r="P36">
+        <v>9.0409195699999998</v>
+      </c>
+      <c r="Q36">
+        <v>9.04921635</v>
+      </c>
+      <c r="R36">
+        <v>9.0449499699999993</v>
+      </c>
+      <c r="S36">
+        <v>9.0419861699999995</v>
+      </c>
+      <c r="T36">
+        <v>9.0469640899999995</v>
+      </c>
+      <c r="U36">
+        <v>9.0464899699999997</v>
+      </c>
+      <c r="V36">
+        <v>9.0419861699999995</v>
+      </c>
+      <c r="W36">
+        <v>9.0425786400000003</v>
+      </c>
+      <c r="X36">
+        <v>9.0458967700000006</v>
+      </c>
+      <c r="Y36">
+        <v>9.0430527600000001</v>
+      </c>
+      <c r="Z36">
+        <v>9.0494530500000003</v>
+      </c>
+      <c r="AA36">
+        <v>9.0499278899999993</v>
+      </c>
+      <c r="AB36">
+        <v>9.0421037900000005</v>
+      </c>
+      <c r="AC36">
+        <v>9.0408004999999996</v>
+      </c>
+      <c r="AD36">
+        <v>9.0418670900000002</v>
+      </c>
+      <c r="AE36">
+        <v>9.0511135599999992</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG36" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37">
+        <v>1.3340000000000001</v>
+      </c>
+      <c r="C37">
+        <v>1.327</v>
+      </c>
+      <c r="D37">
+        <v>1.3280000000000001</v>
+      </c>
+      <c r="E37">
+        <v>1.329</v>
+      </c>
+      <c r="F37">
+        <v>1.3220000000000001</v>
+      </c>
+      <c r="G37">
+        <v>1.33</v>
+      </c>
+      <c r="H37">
+        <v>1.325</v>
+      </c>
+      <c r="I37">
+        <v>1.339</v>
+      </c>
+      <c r="J37">
+        <v>1.323</v>
+      </c>
+      <c r="K37">
+        <v>1.327</v>
+      </c>
+      <c r="L37">
+        <v>1.333</v>
+      </c>
+      <c r="M37">
+        <v>1.329</v>
+      </c>
+      <c r="N37">
+        <v>1.3320000000000001</v>
+      </c>
+      <c r="O37">
+        <v>1.329</v>
+      </c>
+      <c r="P37">
+        <v>1.327</v>
+      </c>
+      <c r="Q37">
+        <v>1.3420000000000001</v>
+      </c>
+      <c r="R37">
+        <v>1.331</v>
+      </c>
+      <c r="S37">
+        <v>1.3260000000000001</v>
+      </c>
+      <c r="T37">
+        <v>1.323</v>
+      </c>
+      <c r="U37">
+        <v>1.3260000000000001</v>
+      </c>
+      <c r="V37">
+        <v>1.3240000000000001</v>
+      </c>
+      <c r="W37">
+        <v>1.329</v>
+      </c>
+      <c r="X37">
+        <v>1.329</v>
+      </c>
+      <c r="Y37">
+        <v>1.3320000000000001</v>
+      </c>
+      <c r="Z37">
+        <v>1.319</v>
+      </c>
+      <c r="AA37">
+        <v>1.3320000000000001</v>
+      </c>
+      <c r="AB37">
+        <v>1.33</v>
+      </c>
+      <c r="AC37">
+        <v>1.333</v>
+      </c>
+      <c r="AD37">
+        <v>1.329</v>
+      </c>
+      <c r="AE37">
+        <v>1.3260000000000001</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38">
+        <v>16.041241299999999</v>
+      </c>
+      <c r="C38">
+        <v>16.041004600000001</v>
+      </c>
+      <c r="D38">
+        <v>16.040649500000001</v>
+      </c>
+      <c r="E38">
+        <v>16.039701300000001</v>
+      </c>
+      <c r="F38">
+        <v>16.0399387</v>
+      </c>
+      <c r="G38">
+        <v>16.041716099999999</v>
+      </c>
+      <c r="H38">
+        <v>16.040412100000001</v>
+      </c>
+      <c r="I38">
+        <v>16.041004600000001</v>
+      </c>
+      <c r="J38">
+        <v>16.041360300000001</v>
+      </c>
+      <c r="K38">
+        <v>16.041242</v>
+      </c>
+      <c r="L38">
+        <v>16.0405312</v>
+      </c>
+      <c r="M38">
+        <v>16.0417168</v>
+      </c>
+      <c r="N38">
+        <v>16.041242</v>
+      </c>
+      <c r="O38">
+        <v>16.0421917</v>
+      </c>
+      <c r="P38">
+        <v>16.040293699999999</v>
+      </c>
+      <c r="Q38">
+        <v>16.0414794</v>
+      </c>
+      <c r="R38">
+        <v>16.039582200000002</v>
+      </c>
+      <c r="S38">
+        <v>16.042426899999999</v>
+      </c>
+      <c r="T38">
+        <v>16.0391081</v>
+      </c>
+      <c r="U38">
+        <v>16.041242</v>
+      </c>
+      <c r="V38">
+        <v>16.040057000000001</v>
+      </c>
+      <c r="W38">
+        <v>16.038634699999999</v>
+      </c>
+      <c r="X38">
+        <v>16.039108800000001</v>
+      </c>
+      <c r="Y38">
+        <v>16.041124400000001</v>
+      </c>
+      <c r="Z38">
+        <v>16.0414794</v>
+      </c>
+      <c r="AA38">
+        <v>16.0414794</v>
+      </c>
+      <c r="AB38">
+        <v>16.040412100000001</v>
+      </c>
+      <c r="AC38">
+        <v>16.041598499999999</v>
+      </c>
+      <c r="AD38">
+        <v>16.039700499999999</v>
+      </c>
+      <c r="AE38">
+        <v>16.0408869</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG38" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39">
+        <v>2.359</v>
+      </c>
+      <c r="C39">
+        <v>2.363</v>
+      </c>
+      <c r="D39">
+        <v>2.363</v>
+      </c>
+      <c r="E39">
+        <v>2.3519999999999999</v>
+      </c>
+      <c r="F39">
+        <v>2.3679999999999999</v>
+      </c>
+      <c r="G39">
+        <v>2.359</v>
+      </c>
+      <c r="H39">
+        <v>2.3690000000000002</v>
+      </c>
+      <c r="I39">
+        <v>2.37</v>
+      </c>
+      <c r="J39">
+        <v>2.3650000000000002</v>
+      </c>
+      <c r="K39">
+        <v>2.371</v>
+      </c>
+      <c r="L39">
+        <v>2.355</v>
+      </c>
+      <c r="M39">
+        <v>2.3530000000000002</v>
+      </c>
+      <c r="N39">
+        <v>2.36</v>
+      </c>
+      <c r="O39">
+        <v>2.3650000000000002</v>
+      </c>
+      <c r="P39">
+        <v>2.359</v>
+      </c>
+      <c r="Q39">
+        <v>2.3639999999999999</v>
+      </c>
+      <c r="R39">
+        <v>2.3580000000000001</v>
+      </c>
+      <c r="S39">
+        <v>2.3559999999999999</v>
+      </c>
+      <c r="T39">
+        <v>2.359</v>
+      </c>
+      <c r="U39">
+        <v>2.3639999999999999</v>
+      </c>
+      <c r="V39">
+        <v>2.37</v>
+      </c>
+      <c r="W39">
+        <v>2.359</v>
+      </c>
+      <c r="X39">
+        <v>2.3639999999999999</v>
+      </c>
+      <c r="Y39">
+        <v>2.3660000000000001</v>
+      </c>
+      <c r="Z39">
+        <v>2.3530000000000002</v>
+      </c>
+      <c r="AA39">
+        <v>2.359</v>
+      </c>
+      <c r="AB39">
+        <v>2.371</v>
+      </c>
+      <c r="AC39">
+        <v>2.37</v>
+      </c>
+      <c r="AD39">
+        <v>2.37</v>
+      </c>
+      <c r="AE39">
+        <v>2.367</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>87</v>
+      </c>
+      <c r="B40">
+        <v>8471</v>
+      </c>
+      <c r="C40">
+        <v>8380</v>
+      </c>
+      <c r="D40">
+        <v>8368</v>
+      </c>
+      <c r="E40">
+        <v>8485</v>
+      </c>
+      <c r="F40">
+        <v>8302</v>
+      </c>
+      <c r="G40">
+        <v>8441</v>
+      </c>
+      <c r="H40">
+        <v>8318</v>
+      </c>
+      <c r="I40">
+        <v>8424</v>
+      </c>
+      <c r="J40">
+        <v>8336</v>
+      </c>
+      <c r="K40">
+        <v>8309</v>
+      </c>
+      <c r="L40">
+        <v>8480</v>
+      </c>
+      <c r="M40">
+        <v>8483</v>
+      </c>
+      <c r="N40">
+        <v>8444</v>
+      </c>
+      <c r="O40">
+        <v>8381</v>
+      </c>
+      <c r="P40">
+        <v>8416</v>
+      </c>
+      <c r="Q40">
+        <v>8490</v>
+      </c>
+      <c r="R40">
+        <v>8452</v>
+      </c>
+      <c r="S40">
+        <v>8434</v>
+      </c>
+      <c r="T40">
+        <v>8375</v>
+      </c>
+      <c r="U40">
+        <v>8362</v>
+      </c>
+      <c r="V40">
+        <v>8302</v>
+      </c>
+      <c r="W40">
+        <v>8429</v>
+      </c>
+      <c r="X40">
+        <v>8384</v>
+      </c>
+      <c r="Y40">
+        <v>8398</v>
+      </c>
+      <c r="Z40">
+        <v>8391</v>
+      </c>
+      <c r="AA40">
+        <v>8448</v>
+      </c>
+      <c r="AB40">
+        <v>8342</v>
+      </c>
+      <c r="AC40">
+        <v>8377</v>
+      </c>
+      <c r="AD40">
+        <v>8342</v>
+      </c>
+      <c r="AE40">
+        <v>8332</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG40" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>90</v>
+      </c>
+      <c r="B41">
+        <v>-62</v>
+      </c>
+      <c r="C41">
+        <v>83</v>
+      </c>
+      <c r="D41">
+        <v>106</v>
+      </c>
+      <c r="E41">
+        <v>-42</v>
+      </c>
+      <c r="F41">
+        <v>196</v>
+      </c>
+      <c r="G41">
+        <v>-5</v>
+      </c>
+      <c r="H41">
+        <v>160</v>
+      </c>
+      <c r="I41">
+        <v>-47</v>
+      </c>
+      <c r="J41">
+        <v>153</v>
+      </c>
+      <c r="K41">
+        <v>165</v>
+      </c>
+      <c r="L41">
+        <v>-52</v>
+      </c>
+      <c r="M41">
+        <v>-44</v>
+      </c>
+      <c r="N41">
+        <v>-18</v>
+      </c>
+      <c r="O41">
+        <v>69</v>
+      </c>
+      <c r="P41">
+        <v>41</v>
+      </c>
+      <c r="Q41">
+        <v>-132</v>
+      </c>
+      <c r="R41">
+        <v>-20</v>
+      </c>
+      <c r="S41">
+        <v>30</v>
+      </c>
+      <c r="T41">
+        <v>118</v>
+      </c>
+      <c r="U41">
+        <v>111</v>
+      </c>
+      <c r="V41">
+        <v>184</v>
+      </c>
+      <c r="W41">
+        <v>16</v>
+      </c>
+      <c r="X41">
+        <v>66</v>
+      </c>
+      <c r="Y41">
+        <v>28</v>
+      </c>
+      <c r="Z41">
+        <v>130</v>
+      </c>
+      <c r="AA41">
+        <v>-18</v>
+      </c>
+      <c r="AB41">
+        <v>101</v>
+      </c>
+      <c r="AC41">
+        <v>42</v>
+      </c>
+      <c r="AD41">
+        <v>108</v>
+      </c>
+      <c r="AE41">
+        <v>148</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG41" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>93</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>0</v>
+      </c>
+      <c r="AB42">
+        <v>0</v>
+      </c>
+      <c r="AC42">
+        <v>0</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG42" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>95</v>
+      </c>
+      <c r="B43">
+        <v>1.234768999973</v>
+      </c>
+      <c r="C43">
+        <v>1.2851650000079999</v>
+      </c>
+      <c r="D43">
+        <v>1.237718000019</v>
+      </c>
+      <c r="E43">
+        <v>1.2671280000359999</v>
+      </c>
+      <c r="F43">
+        <v>1.2472340000090001</v>
+      </c>
+      <c r="G43">
+        <v>1.2532299999730001</v>
+      </c>
+      <c r="H43">
+        <v>1.2570950000079999</v>
+      </c>
+      <c r="I43">
+        <v>1.237886000017</v>
+      </c>
+      <c r="J43">
+        <v>1.2146239999570001</v>
+      </c>
+      <c r="K43">
+        <v>1.262072000012</v>
+      </c>
+      <c r="L43">
+        <v>1.2435729999559999</v>
+      </c>
+      <c r="M43">
+        <v>1.222325000039</v>
+      </c>
+      <c r="N43">
+        <v>1.256019000022</v>
+      </c>
+      <c r="O43">
+        <v>1.244980000018</v>
+      </c>
+      <c r="P43">
+        <v>1.243321000016</v>
+      </c>
+      <c r="Q43">
+        <v>1.2356529999520001</v>
+      </c>
+      <c r="R43">
+        <v>1.2453720000340001</v>
+      </c>
+      <c r="S43">
+        <v>1.2257169999649999</v>
+      </c>
+      <c r="T43">
+        <v>1.2690680000229999</v>
+      </c>
+      <c r="U43">
+        <v>1.2570340000089999</v>
+      </c>
+      <c r="V43">
+        <v>1.265211999998</v>
+      </c>
+      <c r="W43">
+        <v>1.251688000048</v>
+      </c>
+      <c r="X43">
+        <v>1.25581599999</v>
+      </c>
+      <c r="Y43">
+        <v>1.2512679999930001</v>
+      </c>
+      <c r="Z43">
+        <v>1.214327000023</v>
+      </c>
+      <c r="AA43">
+        <v>1.2751580000039999</v>
+      </c>
+      <c r="AB43">
+        <v>1.248826999974</v>
+      </c>
+      <c r="AC43">
+        <v>1.2384510000119999</v>
+      </c>
+      <c r="AD43">
+        <v>1.2554389999710001</v>
+      </c>
+      <c r="AE43">
+        <v>1.2368540000170001</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG43" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <v>65003</v>
+      </c>
+      <c r="C44">
+        <v>65003</v>
+      </c>
+      <c r="D44">
+        <v>65003</v>
+      </c>
+      <c r="E44">
+        <v>65003</v>
+      </c>
+      <c r="F44">
+        <v>65003</v>
+      </c>
+      <c r="G44">
+        <v>65003</v>
+      </c>
+      <c r="H44">
+        <v>65003</v>
+      </c>
+      <c r="I44">
+        <v>65003</v>
+      </c>
+      <c r="J44">
+        <v>65003</v>
+      </c>
+      <c r="K44">
+        <v>65003</v>
+      </c>
+      <c r="L44">
+        <v>65003</v>
+      </c>
+      <c r="M44">
+        <v>65003</v>
+      </c>
+      <c r="N44">
+        <v>65003</v>
+      </c>
+      <c r="O44">
+        <v>65003</v>
+      </c>
+      <c r="P44">
+        <v>65003</v>
+      </c>
+      <c r="Q44">
+        <v>65003</v>
+      </c>
+      <c r="R44">
+        <v>65003</v>
+      </c>
+      <c r="S44">
+        <v>65003</v>
+      </c>
+      <c r="T44">
+        <v>65003</v>
+      </c>
+      <c r="U44">
+        <v>65003</v>
+      </c>
+      <c r="V44">
+        <v>65003</v>
+      </c>
+      <c r="W44">
+        <v>65003</v>
+      </c>
+      <c r="X44">
+        <v>65003</v>
+      </c>
+      <c r="Y44">
+        <v>65003</v>
+      </c>
+      <c r="Z44">
+        <v>65003</v>
+      </c>
+      <c r="AA44">
+        <v>65003</v>
+      </c>
+      <c r="AB44">
+        <v>65003</v>
+      </c>
+      <c r="AC44">
+        <v>65003</v>
+      </c>
+      <c r="AD44">
+        <v>65003</v>
+      </c>
+      <c r="AE44">
+        <v>65003</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG44" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>0</v>
+      </c>
+      <c r="AB45">
+        <v>0</v>
+      </c>
+      <c r="AC45">
+        <v>0</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>0</v>
+      </c>
+      <c r="AF45" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG45" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>0</v>
+      </c>
+      <c r="AB46">
+        <v>0</v>
+      </c>
+      <c r="AC46">
+        <v>0</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
+      </c>
+      <c r="AF46" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>98</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <v>0</v>
+      </c>
+      <c r="V47">
+        <v>0</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>0</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>0</v>
+      </c>
+      <c r="AB47">
+        <v>0</v>
+      </c>
+      <c r="AC47">
+        <v>0</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>0</v>
+      </c>
+      <c r="AF47" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG47" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="48" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>100</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="M48">
+        <v>1</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>1</v>
+      </c>
+      <c r="P48">
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>1</v>
+      </c>
+      <c r="R48">
+        <v>1</v>
+      </c>
+      <c r="S48">
+        <v>1</v>
+      </c>
+      <c r="T48">
+        <v>1</v>
+      </c>
+      <c r="U48">
+        <v>1</v>
+      </c>
+      <c r="V48">
+        <v>1</v>
+      </c>
+      <c r="W48">
+        <v>1</v>
+      </c>
+      <c r="X48">
+        <v>1</v>
+      </c>
+      <c r="Y48">
+        <v>1</v>
+      </c>
+      <c r="Z48">
+        <v>1</v>
+      </c>
+      <c r="AA48">
+        <v>1</v>
+      </c>
+      <c r="AB48">
+        <v>1</v>
+      </c>
+      <c r="AC48">
+        <v>1</v>
+      </c>
+      <c r="AD48">
+        <v>1</v>
+      </c>
+      <c r="AE48">
+        <v>1</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG48" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>102</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <v>0</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <v>0</v>
+      </c>
+      <c r="V49">
+        <v>0</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>0</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>0</v>
+      </c>
+      <c r="AB49">
+        <v>0</v>
+      </c>
+      <c r="AC49">
+        <v>0</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>0</v>
+      </c>
+      <c r="AF49" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG49" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
